--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 ED.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 ED.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATTR-651</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>3.85%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>VIRURU R</t>
   </si>
   <si>
@@ -178,6 +184,9 @@
     <t>5.56%</t>
   </si>
   <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>WALTERS L</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>EDCI-644</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>SLATTERY G</t>
   </si>
   <si>
@@ -376,6 +388,9 @@
     <t>2.94%</t>
   </si>
   <si>
+    <t>2.86%</t>
+  </si>
+  <si>
     <t>EHRD-371</t>
   </si>
   <si>
@@ -406,9 +421,6 @@
     <t>7.89%</t>
   </si>
   <si>
-    <t>5.26%</t>
-  </si>
-  <si>
     <t>EHRD-374</t>
   </si>
   <si>
@@ -457,9 +469,6 @@
     <t>17.24%</t>
   </si>
   <si>
-    <t>3.45%</t>
-  </si>
-  <si>
     <t>EHRD-474</t>
   </si>
   <si>
@@ -484,6 +493,9 @@
     <t>4.55%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>EHRD-481</t>
   </si>
   <si>
@@ -655,9 +667,6 @@
     <t>GASTEL B</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>95.24%</t>
   </si>
   <si>
@@ -733,6 +742,9 @@
     <t>1.29%</t>
   </si>
   <si>
+    <t>1.27%</t>
+  </si>
+  <si>
     <t>HLTH-240</t>
   </si>
   <si>
@@ -751,7 +763,7 @@
     <t>50.93%</t>
   </si>
   <si>
-    <t>3.70%</t>
+    <t>6.09%</t>
   </si>
   <si>
     <t>HLTH-335</t>
@@ -778,6 +790,9 @@
     <t>1.96%</t>
   </si>
   <si>
+    <t>1.92%</t>
+  </si>
+  <si>
     <t>HLTH-353</t>
   </si>
   <si>
@@ -808,6 +823,9 @@
     <t>1.03%</t>
   </si>
   <si>
+    <t>1.02%</t>
+  </si>
+  <si>
     <t>HLTH-403</t>
   </si>
   <si>
@@ -913,6 +931,9 @@
     <t>4.65%</t>
   </si>
   <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>INST-322</t>
   </si>
   <si>
@@ -922,6 +943,9 @@
     <t>13.79%</t>
   </si>
   <si>
+    <t>1.69%</t>
+  </si>
+  <si>
     <t>INST-462</t>
   </si>
   <si>
@@ -937,6 +961,9 @@
     <t>CASSELL E</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>INST-463</t>
   </si>
   <si>
@@ -1021,6 +1048,9 @@
     <t>21.74%</t>
   </si>
   <si>
+    <t>8.00%</t>
+  </si>
+  <si>
     <t>WILLINGHAM K</t>
   </si>
   <si>
@@ -1045,9 +1075,6 @@
     <t>1.14%</t>
   </si>
   <si>
-    <t>2.27%</t>
-  </si>
-  <si>
     <t>GRANT M</t>
   </si>
   <si>
@@ -1111,6 +1138,9 @@
     <t>COADY W</t>
   </si>
   <si>
+    <t>12.50%</t>
+  </si>
+  <si>
     <t>TYSON L</t>
   </si>
   <si>
@@ -1264,9 +1294,6 @@
     <t>82.86%</t>
   </si>
   <si>
-    <t>2.86%</t>
-  </si>
-  <si>
     <t>RDNG-461</t>
   </si>
   <si>
@@ -1372,6 +1399,9 @@
     <t>2.54%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>SPMT-304</t>
   </si>
   <si>
@@ -1411,6 +1441,9 @@
     <t>4.93%</t>
   </si>
   <si>
+    <t>1.39%</t>
+  </si>
+  <si>
     <t>SPMT-336</t>
   </si>
   <si>
@@ -1429,6 +1462,9 @@
     <t>1.06%</t>
   </si>
   <si>
+    <t>1.05%</t>
+  </si>
+  <si>
     <t>SPMT-337</t>
   </si>
   <si>
@@ -1474,6 +1510,9 @@
     <t>SPMT-482</t>
   </si>
   <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>KEIPER P</t>
   </si>
   <si>
@@ -1504,9 +1543,6 @@
     <t>SPMT-612</t>
   </si>
   <si>
-    <t>12.50%</t>
-  </si>
-  <si>
     <t>SPMT-623</t>
   </si>
   <si>
@@ -1538,9 +1574,6 @@
   </si>
   <si>
     <t>12.86%</t>
-  </si>
-  <si>
-    <t>5.71%</t>
   </si>
   <si>
     <t>4.29%</t>
@@ -1593,12 +1626,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1892,15 +1924,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1925,5144 +1957,5726 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>3.111</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>3.429</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>3.939</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
         <v>3.406</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
         <v>3.692</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
         <v>3.778</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C51" t="n">
         <v>3.706</v>
       </c>
       <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C54" t="n">
         <v>3.944</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C58" t="n">
         <v>3.846</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C64" t="n">
         <v>3.714</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C68" t="n">
         <v>3.546</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C71" t="n">
         <v>3.769</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C74" t="n">
         <v>3.956</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C78" t="n">
         <v>3.885</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C79" t="n">
         <v>3.933</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C82" t="n">
         <v>3.75</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C93" t="n">
         <v>3.333</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C96" t="n">
         <v>3.769</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C97" t="n">
         <v>3.808</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C98" t="n">
         <v>3.889</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C101" t="n">
         <v>3.9777</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C107" t="n">
         <v>3.667</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C111" t="n">
         <v>2.882</v>
       </c>
       <c r="D111" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C114" t="n">
         <v>3.147</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E114" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" t="s">
+        <v>129</v>
+      </c>
+      <c r="H114" t="s">
         <v>123</v>
       </c>
-      <c r="F114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" t="s">
-        <v>124</v>
-      </c>
-      <c r="H114" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C117" t="n">
         <v>3.474</v>
       </c>
       <c r="D117" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F117" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="B120" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>126</v>
       </c>
       <c r="C120" t="n">
         <v>3.162</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" t="n">
         <v>3.583</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C129" t="n">
         <v>3.069</v>
       </c>
       <c r="D129" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E129" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C132" t="n">
         <v>2.818</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F132" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C135" t="n">
         <v>3.318</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E135" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F135" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C138" t="n">
         <v>3.2</v>
       </c>
       <c r="D138" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="B141" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
-        <v>157</v>
       </c>
       <c r="C141" t="n">
         <v>3.787</v>
       </c>
       <c r="D141" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E141" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
       </c>
       <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>10</v>
-      </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C147" t="n">
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E147" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F147" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C150" t="n">
         <v>3.75</v>
       </c>
       <c r="D150" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E150" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C153" t="n">
         <v>3.385</v>
       </c>
       <c r="D153" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E153" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C156" t="n">
         <v>3.941</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E156" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C159" t="n">
         <v>3.906</v>
       </c>
       <c r="D159" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E159" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C162" t="n">
         <v>3.8335</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C165" t="n">
         <v>3.3885</v>
       </c>
       <c r="D165" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E165" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C168" t="n">
         <v>3.19</v>
       </c>
       <c r="D168" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E168" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F168" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C171" t="n">
         <v>3.4</v>
       </c>
       <c r="D171" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E171" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F171" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C172" t="n">
         <v>3.609</v>
       </c>
       <c r="D172" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E172" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G172" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C175" t="n">
         <v>3.454</v>
       </c>
       <c r="D175" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E175" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I175" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C178" t="n">
         <v>2.564</v>
       </c>
       <c r="D178" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E178" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F178" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G178" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H178" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C190" t="n">
         <v>3.667</v>
       </c>
       <c r="D190" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E190" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F190" t="s">
+        <v>159</v>
+      </c>
+      <c r="G190" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="B191" t="s">
         <v>213</v>
-      </c>
-      <c r="G190" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>209</v>
       </c>
       <c r="C191" t="n">
         <v>3.952</v>
       </c>
       <c r="D191" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E191" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C194" t="n">
         <v>3.1385</v>
       </c>
       <c r="D194" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E194" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F194" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I194" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C197" t="n">
         <v>3.786</v>
       </c>
       <c r="D197" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E197" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C198" t="n">
         <v>3.4475</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E198" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I198" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C201" t="n">
         <v>3.737</v>
       </c>
       <c r="D201" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E201" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C204" t="n">
         <v>3.558</v>
       </c>
       <c r="D204" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E204" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F204" t="s">
+        <v>235</v>
+      </c>
+      <c r="G204" t="s">
+        <v>235</v>
+      </c>
+      <c r="H204" t="s">
+        <v>236</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="B207" t="s">
         <v>232</v>
-      </c>
-      <c r="G204" t="s">
-        <v>232</v>
-      </c>
-      <c r="H204" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>229</v>
       </c>
       <c r="C207" t="n">
         <v>3.5055</v>
       </c>
       <c r="D207" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E207" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F207" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G207" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H207" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I207" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C210" t="n">
         <v>3.324</v>
       </c>
       <c r="D210" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E210" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F210" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H210" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C213" t="n">
         <v>3.174</v>
       </c>
       <c r="D213" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E213" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G213" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="H213" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I213" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C216" t="n">
         <v>3.2075</v>
       </c>
       <c r="D216" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E216" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F216" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I216" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C219" t="n">
         <v>3.106</v>
       </c>
       <c r="D219" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E219" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F219" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G219" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H219" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>257</v>
+      </c>
+      <c r="I219" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C222" t="n">
         <v>2.5695</v>
       </c>
       <c r="D222" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E222" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F222" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G222" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I222" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C225" t="n">
         <v>3.7315</v>
       </c>
       <c r="D225" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E225" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H225" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I225" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C228" t="n">
         <v>3.17</v>
       </c>
       <c r="D228" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E228" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F228" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G228" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H228" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C231" t="n">
         <v>2.941</v>
       </c>
       <c r="D231" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E231" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F231" t="s">
+        <v>129</v>
+      </c>
+      <c r="G231" t="s">
+        <v>182</v>
+      </c>
+      <c r="H231" t="s">
+        <v>12</v>
+      </c>
+      <c r="I231" t="s">
         <v>124</v>
       </c>
-      <c r="G231" t="s">
-        <v>178</v>
-      </c>
-      <c r="H231" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C234" t="n">
         <v>2.6825</v>
       </c>
       <c r="D234" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E234" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F234" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G234" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I234" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C237" t="n">
         <v>3.818</v>
       </c>
       <c r="D237" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G237" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H237" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I237" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C238" t="n">
         <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H238" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C241" t="n">
         <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C244" t="n">
         <v>3.9645</v>
       </c>
       <c r="D244" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E244" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H244" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C247" t="n">
         <v>4</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H247" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C248" t="n">
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C251" t="n">
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C254" t="n">
         <v>3.636</v>
       </c>
       <c r="D254" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E254" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H254" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C257" t="n">
         <v>3.429</v>
       </c>
       <c r="D257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E257" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F257" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G257" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H257" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="B260" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="B260" t="s">
-        <v>282</v>
       </c>
       <c r="C260" t="n">
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H260" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C263" t="n">
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H263" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C266" t="n">
         <v>3.739</v>
       </c>
       <c r="D266" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E266" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H266" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C267" t="n">
         <v>3.333</v>
       </c>
       <c r="D267" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E267" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F267" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C270" t="n">
         <v>2.9947</v>
       </c>
       <c r="D270" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E270" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F270" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G270" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H270" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I270" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C273" t="n">
         <v>3.793</v>
       </c>
       <c r="D273" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E273" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F273" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="G273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I273" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C276" t="n">
         <v>3.55</v>
       </c>
       <c r="D276" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E276" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H276" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>313</v>
+      </c>
+      <c r="I276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C277" t="n">
         <v>3.724</v>
       </c>
       <c r="D277" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E277" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F277" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G277" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H277" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I277" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C280" t="n">
         <v>3.8</v>
       </c>
       <c r="D280" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E280" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G280" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H280" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I280" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C281" t="n">
         <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E281" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F281" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G281" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H281" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I281" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C284" t="n">
         <v>3.529</v>
       </c>
       <c r="D284" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E284" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F284" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G284" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H284" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I284" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C285" t="n">
         <v>3.767</v>
       </c>
       <c r="D285" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E285" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H285" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C286" t="n">
         <v>4</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E286" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F286" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G286" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H286" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I286" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C287" t="n">
         <v>3.8647</v>
       </c>
       <c r="D287" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E287" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F287" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G287" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H287" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I287" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C288" t="n">
         <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C289" t="n">
         <v>3.889</v>
       </c>
       <c r="D289" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E289" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G289" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H289" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C290" t="n">
         <v>3.6515</v>
       </c>
       <c r="D290" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E290" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F290" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G290" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H290" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>333</v>
+      </c>
+      <c r="I290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C291" t="n">
         <v>3.786</v>
       </c>
       <c r="D291" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E291" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H291" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C292" t="n">
         <v>3.966</v>
       </c>
       <c r="D292" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E292" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="F292" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G292" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H292" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C293" t="n">
         <v>3.722</v>
       </c>
       <c r="D293" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E293" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F293" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G293" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H293" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I293" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C294" t="n">
         <v>3.783</v>
       </c>
       <c r="D294" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E294" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H294" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I294" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C295" t="n">
         <v>3.817</v>
       </c>
       <c r="D295" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E295" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F295" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G295" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H295" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I295" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C296" t="n">
         <v>3.421</v>
       </c>
       <c r="D296" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E296" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F296" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G296" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H296" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I296" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C297" t="n">
         <v>3.942</v>
       </c>
       <c r="D297" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E297" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F297" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I297" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C298" t="n">
         <v>3.4195</v>
       </c>
       <c r="D298" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E298" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F298" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G298" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H298" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>355</v>
+      </c>
+      <c r="I298" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C299" t="n">
         <v>3.4085</v>
       </c>
       <c r="D299" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E299" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F299" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G299" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H299" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I299" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C300" t="n">
         <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H300" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C301" t="n">
         <v>3.742</v>
       </c>
       <c r="D301" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E301" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F301" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G301" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H301" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C302" t="n">
         <v>4</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E302" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F302" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G302" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H302" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I302" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C303" t="n">
         <v>3.55</v>
       </c>
       <c r="D303" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E303" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F303" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G303" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H303" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C304" t="n">
         <v>3.5153</v>
       </c>
       <c r="D304" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E304" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F304" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G304" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H304" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>341</v>
+      </c>
+      <c r="I304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C307" t="n">
         <v>3.9</v>
       </c>
       <c r="D307" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E307" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I307" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C308" t="n">
         <v>4</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E308" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F308" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H308" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I308" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C309" t="n">
         <v>4</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E309" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H309" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C310" t="n">
         <v>4</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H310" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C311" t="n">
         <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H311" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I311" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C312" t="n">
         <v>3.8165</v>
       </c>
       <c r="D312" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E312" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F312" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G312" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H312" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I312" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="B315" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C315" t="n">
         <v>2.919</v>
       </c>
       <c r="D315" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E315" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F315" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G315" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H315" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>381</v>
+      </c>
+      <c r="I315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C318" t="n">
         <v>2.85</v>
       </c>
       <c r="D318" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E318" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F318" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G318" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H318" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I318" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C321" t="n">
         <v>3.167</v>
       </c>
       <c r="D321" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E321" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F321" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G321" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H321" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="B324" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C324" t="n">
         <v>2.6535</v>
       </c>
       <c r="D324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E324" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F324" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G324" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H324" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I324" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="B327" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C327" t="n">
         <v>2.96</v>
       </c>
       <c r="D327" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E327" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F327" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="G327" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="H327" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I327" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C330" t="n">
         <v>2.947</v>
       </c>
       <c r="D330" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E330" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F330" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G330" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H330" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C333" t="n">
         <v>3.0615</v>
       </c>
       <c r="D333" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E333" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F333" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="G333" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H333" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C334" t="n">
         <v>2.85</v>
       </c>
       <c r="D334" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E334" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F334" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G334" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H334" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="B337" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C337" t="n">
         <v>3.227</v>
       </c>
       <c r="D337" t="s">
+        <v>156</v>
+      </c>
+      <c r="E337" t="s">
         <v>153</v>
       </c>
-      <c r="E337" t="s">
-        <v>150</v>
-      </c>
       <c r="F337" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G337" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H337" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="B340" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C340" t="n">
         <v>3.841</v>
       </c>
       <c r="D340" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E340" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F340" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G340" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H340" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="B343" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C343" t="n">
         <v>2.75</v>
       </c>
       <c r="D343" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E343" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F343" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G343" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H343" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="B346" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C346" t="n">
         <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H346" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C347" t="n">
         <v>4</v>
       </c>
       <c r="D347" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E347" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F347" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H347" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C350" t="n">
         <v>3.182</v>
       </c>
       <c r="D350" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E350" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F350" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="B353" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>392</v>
       </c>
       <c r="C353" t="n">
         <v>4</v>
       </c>
       <c r="D353" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E353" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F353" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G353" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H353" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C356" t="n">
         <v>3.769</v>
       </c>
       <c r="D356" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E356" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F356" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G356" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H356" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I356" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="B359" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C359" t="n">
         <v>4</v>
       </c>
       <c r="D359" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E359" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F359" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G359" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H359" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I359" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="B360" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C360" t="n">
         <v>3.353</v>
       </c>
       <c r="D360" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E360" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F360" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G360" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H360" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I360" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="B363" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C363" t="n">
         <v>3.518</v>
       </c>
       <c r="D363" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E363" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F363" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="G363" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="H363" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="B366" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C366" t="n">
         <v>3.743</v>
       </c>
       <c r="D366" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E366" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F366" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G366" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H366" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="B369" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C369" t="n">
         <v>3.969</v>
       </c>
       <c r="D369" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E369" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F369" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H369" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="B372" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C372" t="n">
         <v>3.442</v>
       </c>
       <c r="D372" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E372" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F372" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H372" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I372" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
       <c r="B375" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C375" t="n">
         <v>3.765</v>
       </c>
       <c r="D375" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E375" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F375" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G375" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H375" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
       <c r="B378" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C378" t="n">
         <v>3.889</v>
       </c>
       <c r="D378" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E378" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F378" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G378" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H378" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
       <c r="B381" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C381" t="n">
         <v>4</v>
       </c>
       <c r="D381" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H381" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I381" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
       <c r="B384" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C384" t="n">
         <v>3.917</v>
       </c>
       <c r="D384" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E384" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="F384" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G384" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H384" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I384" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
       <c r="B387" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C387" t="n">
         <v>3.79</v>
       </c>
       <c r="D387" t="s">
+        <v>54</v>
+      </c>
+      <c r="E387" t="s">
+        <v>443</v>
+      </c>
+      <c r="F387" t="s">
         <v>52</v>
       </c>
-      <c r="E387" t="s">
-        <v>434</v>
-      </c>
-      <c r="F387" t="s">
-        <v>245</v>
-      </c>
       <c r="G387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H387" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
       <c r="B390" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C390" t="n">
         <v>3.952</v>
       </c>
       <c r="D390" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E390" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F390" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G390" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H390" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I390" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
       <c r="B393" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C393" t="n">
         <v>3.871</v>
       </c>
       <c r="D393" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E393" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F393" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G393" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H393" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
       <c r="B396" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C396" t="n">
         <v>3.976</v>
       </c>
       <c r="D396" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E396" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F396" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G396" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H396" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
       <c r="B399" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C399" t="n">
         <v>3.938</v>
       </c>
       <c r="D399" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E399" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F399" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G399" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H399" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="A401" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
       <c r="B402" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C402" t="n">
         <v>3.3233</v>
       </c>
       <c r="D402" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E402" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="F402" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G402" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H402" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>460</v>
+      </c>
+      <c r="I402" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="A404" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
       <c r="B405" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C405" t="n">
         <v>2.5563</v>
       </c>
       <c r="D405" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E405" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="F405" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="G405" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="H405" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
+        <v>468</v>
+      </c>
+      <c r="I405" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="A407" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
       <c r="B408" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C408" t="n">
         <v>2.742</v>
       </c>
       <c r="D408" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="E408" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F408" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G408" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H408" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
+        <v>474</v>
+      </c>
+      <c r="I408" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
       <c r="A410" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
       <c r="B411" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C411" t="n">
         <v>3.2667</v>
       </c>
       <c r="D411" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="E411" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="F411" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="G411" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H411" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
+        <v>481</v>
+      </c>
+      <c r="I411" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="A413" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
       <c r="B414" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C414" t="n">
         <v>3.782</v>
       </c>
       <c r="D414" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E414" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F414" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="G414" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H414" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
+        <v>486</v>
+      </c>
+      <c r="I414" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="B415" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C415" t="n">
         <v>3.7137</v>
       </c>
       <c r="D415" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E415" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F415" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G415" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H415" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8">
+        <v>491</v>
+      </c>
+      <c r="I415" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
       <c r="A417" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
       <c r="B418" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C418" t="n">
         <v>4</v>
       </c>
       <c r="D418" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E418" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F418" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G418" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H418" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I418" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
       <c r="A420" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
       <c r="B421" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C421" t="n">
         <v>3.357</v>
       </c>
       <c r="D421" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E421" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F421" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G421" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H421" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I421" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
       <c r="A423" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
       <c r="B424" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C424" t="n">
         <v>3.6</v>
       </c>
       <c r="D424" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E424" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F424" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G424" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H424" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I424" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
       <c r="A426" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
       <c r="B427" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C427" t="n">
         <v>3.2787</v>
       </c>
       <c r="D427" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E427" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F427" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G427" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H427" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I427" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
       <c r="B428" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C428" t="n">
         <v>3.1045</v>
       </c>
       <c r="D428" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E428" t="s">
+        <v>500</v>
+      </c>
+      <c r="F428" t="s">
+        <v>276</v>
+      </c>
+      <c r="G428" t="s">
+        <v>12</v>
+      </c>
+      <c r="H428" t="s">
+        <v>123</v>
+      </c>
+      <c r="I428" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="B429" t="s">
         <v>487</v>
-      </c>
-      <c r="F428" t="s">
-        <v>270</v>
-      </c>
-      <c r="G428" t="s">
-        <v>11</v>
-      </c>
-      <c r="H428" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="B429" t="s">
-        <v>475</v>
       </c>
       <c r="C429" t="n">
         <v>3.896</v>
       </c>
       <c r="D429" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E429" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="F429" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G429" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H429" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
+        <v>502</v>
+      </c>
+      <c r="I429" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
       <c r="A431" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
       <c r="B432" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C432" t="n">
         <v>4</v>
       </c>
       <c r="D432" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E432" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F432" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G432" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H432" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I432" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
       <c r="A434" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
       <c r="B435" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C435" t="n">
         <v>4</v>
       </c>
       <c r="D435" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E435" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F435" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G435" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H435" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I435" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
       <c r="A437" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
       <c r="B438" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C438" t="n">
         <v>3</v>
       </c>
       <c r="D438" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E438" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F438" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G438" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H438" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I438" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
       <c r="A440" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
       <c r="B441" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C441" t="n">
         <v>3.143</v>
       </c>
       <c r="D441" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E441" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F441" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G441" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H441" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I441" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="A443" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
       <c r="B444" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C444" t="n">
         <v>3.25</v>
       </c>
       <c r="D444" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E444" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F444" t="s">
-        <v>496</v>
+        <v>374</v>
       </c>
       <c r="G444" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H444" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I444" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
       <c r="B447" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C447" t="n">
         <v>3.9</v>
       </c>
       <c r="D447" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E447" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F447" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H447" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I447" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
       <c r="A449" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="B450" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C450" t="n">
         <v>4</v>
       </c>
       <c r="D450" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H450" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I450" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
       <c r="A452" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
       <c r="B453" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C453" t="n">
         <v>4</v>
       </c>
       <c r="D453" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E453" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F453" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G453" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H453" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I453" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
       <c r="A455" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
       <c r="B456" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C456" t="n">
         <v>4</v>
       </c>
       <c r="D456" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H456" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
       <c r="B459" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C459" t="n">
         <v>4</v>
       </c>
       <c r="D459" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H459" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I459" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
       <c r="B462" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C462" t="n">
         <v>3.071</v>
       </c>
       <c r="D462" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E462" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="F462" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="G462" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H462" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
+        <v>520</v>
+      </c>
+      <c r="I462" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
       <c r="B465" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C465" t="n">
         <v>4</v>
       </c>
       <c r="D465" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E465" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F465" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G465" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H465" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I465" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
       <c r="B468" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C468" t="n">
         <v>4</v>
       </c>
       <c r="D468" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E468" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F468" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H468" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I468" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
       <c r="B469" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C469" t="n">
         <v>4</v>
       </c>
       <c r="D469" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E469" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F469" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H469" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I469" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
       <c r="B470" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C470" t="n">
         <v>4</v>
       </c>
       <c r="D470" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E470" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F470" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G470" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H470" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I470" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
       <c r="A472" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
       <c r="B473" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C473" t="n">
         <v>3.92</v>
       </c>
       <c r="D473" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E473" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F473" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G473" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H473" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I473" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 ED.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 ED.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>Course</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ATTR-661</t>
   </si>
   <si>
+    <t>BIED-616</t>
+  </si>
+  <si>
+    <t>LARA-ALECIO R</t>
+  </si>
+  <si>
     <t>CEHD-603</t>
   </si>
   <si>
@@ -154,6 +160,24 @@
     <t>EDAD-637</t>
   </si>
   <si>
+    <t>EDAD-638</t>
+  </si>
+  <si>
+    <t>WEBB-JOHNSON G</t>
+  </si>
+  <si>
+    <t>81.82%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>EDAD-669</t>
+  </si>
+  <si>
+    <t>PECK-PARROTT K</t>
+  </si>
+  <si>
     <t>EDCI-602</t>
   </si>
   <si>
@@ -352,12 +376,12 @@
     <t>EDCI-689</t>
   </si>
   <si>
+    <t>LAUB J</t>
+  </si>
+  <si>
     <t>NESHYBA M</t>
   </si>
   <si>
-    <t>LAUB J</t>
-  </si>
-  <si>
     <t>EHRD-303</t>
   </si>
   <si>
@@ -466,9 +490,6 @@
     <t>45.45%</t>
   </si>
   <si>
-    <t>18.18%</t>
-  </si>
-  <si>
     <t>EHRD-475</t>
   </si>
   <si>
@@ -877,15 +898,30 @@
     <t>36.36%</t>
   </si>
   <si>
+    <t>HLTH-611</t>
+  </si>
+  <si>
+    <t>JONES-MCKYER E</t>
+  </si>
+  <si>
     <t>HLTH-634</t>
   </si>
   <si>
     <t>HLTH-635</t>
   </si>
   <si>
+    <t>HLTH-645</t>
+  </si>
+  <si>
     <t>HLTH-646</t>
   </si>
   <si>
+    <t>HLTH-685</t>
+  </si>
+  <si>
+    <t>HLTH-689</t>
+  </si>
+  <si>
     <t>INST-301</t>
   </si>
   <si>
@@ -961,6 +997,9 @@
     <t>THOMAS F</t>
   </si>
   <si>
+    <t>SPORTSMAN-DARNELL G</t>
+  </si>
+  <si>
     <t>CRUTHIRDS C</t>
   </si>
   <si>
@@ -991,6 +1030,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>SHERMAN L</t>
+  </si>
+  <si>
     <t>HOURAHAN J</t>
   </si>
   <si>
@@ -1078,9 +1120,6 @@
     <t>6.45%</t>
   </si>
   <si>
-    <t>SHERMAN L</t>
-  </si>
-  <si>
     <t>ARMSTRONG C</t>
   </si>
   <si>
@@ -1112,9 +1151,6 @@
   </si>
   <si>
     <t>TYSON L</t>
-  </si>
-  <si>
-    <t>81.82%</t>
   </si>
   <si>
     <t>KINE-213</t>
@@ -1892,7 +1928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,13 +2112,13 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>3.939</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -2096,58 +2132,58 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="n">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>30</v>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2155,16 +2191,16 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>3.406</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -2175,24 +2211,24 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -2320,7 +2356,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
@@ -2343,12 +2379,12 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
@@ -2371,340 +2407,340 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" t="n">
-        <v>3.692</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="C52" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
+      <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="C50" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" t="s">
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
         <v>54</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.706</v>
-      </c>
-      <c r="D51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="C58" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C60" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="D60" t="s">
         <v>63</v>
       </c>
-      <c r="E58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
+      <c r="E60" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="C61" t="n">
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="n">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D66" t="s">
         <v>10</v>
       </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>71</v>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="C67" t="n">
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="n">
         <v>4</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D70" t="s">
         <v>10</v>
       </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-      <c r="F68" t="s">
+      <c r="C73" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D73" t="s">
         <v>76</v>
       </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
+      <c r="E73" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F73" t="s">
         <v>78</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.956</v>
-      </c>
-      <c r="D74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>84</v>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3.546</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2713,92 +2749,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="B78" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="C78" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="D78" t="s">
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D80" t="s">
         <v>86</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>87</v>
       </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
         <v>88</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.933</v>
-      </c>
-      <c r="D79" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D82" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3.956</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -2812,12 +2807,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -2838,218 +2833,259 @@
         <v>11</v>
       </c>
     </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="D87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="88" spans="1:8">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="D88" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="n">
         <v>4</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D92" t="s">
         <v>10</v>
       </c>
-      <c r="E89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D95" t="s">
         <v>10</v>
       </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D93" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D96" t="s">
-        <v>78</v>
-      </c>
-      <c r="E96" t="s">
-        <v>79</v>
-      </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.808</v>
-      </c>
-      <c r="D97" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" t="s">
-        <v>87</v>
-      </c>
-      <c r="F97" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" t="s">
-        <v>11</v>
+      <c r="A97" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D102" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
         <v>104</v>
       </c>
-      <c r="C98" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
-      </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" t="n">
-        <v>3.9777</v>
-      </c>
-      <c r="D101" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="C105" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" t="s">
+        <v>87</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>111</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3057,13 +3093,13 @@
         <v>112</v>
       </c>
       <c r="C107" t="n">
-        <v>3.667</v>
+        <v>3.889</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -3075,332 +3111,332 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" t="n">
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.9777</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="n">
         <v>4</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D113" t="s">
         <v>10</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="D111" t="s">
-        <v>116</v>
-      </c>
-      <c r="E111" t="s">
-        <v>117</v>
-      </c>
-      <c r="F111" t="s">
-        <v>118</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
         <v>119</v>
       </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>121</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D114" t="s">
-        <v>122</v>
-      </c>
-      <c r="E114" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" t="s">
-        <v>124</v>
-      </c>
-      <c r="H114" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>125</v>
+      <c r="C116" t="n">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="B117" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C117" t="n">
-        <v>3.474</v>
+        <v>3.667</v>
       </c>
       <c r="D117" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F117" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="D120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" t="s">
         <v>126</v>
       </c>
-      <c r="C120" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="D120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" t="s">
-        <v>133</v>
-      </c>
-      <c r="F120" t="s">
-        <v>134</v>
-      </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C123" t="n">
-        <v>3.583</v>
+        <v>3.147</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>3.474</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C129" t="n">
-        <v>3.069</v>
+        <v>3.162</v>
       </c>
       <c r="D129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" t="s">
+        <v>142</v>
+      </c>
+      <c r="G129" t="s">
+        <v>143</v>
+      </c>
+      <c r="H129" t="s">
         <v>144</v>
-      </c>
-      <c r="E129" t="s">
-        <v>145</v>
-      </c>
-      <c r="F129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C132" t="n">
-        <v>2.818</v>
+        <v>3.583</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F132" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C135" t="n">
-        <v>3.318</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C138" t="n">
-        <v>3.2</v>
+        <v>3.069</v>
       </c>
       <c r="D138" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E138" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="D141" t="s">
         <v>157</v>
       </c>
-      <c r="C141" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="D141" t="s">
-        <v>162</v>
-      </c>
       <c r="E141" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="G141" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="H141" t="s">
         <v>11</v>
@@ -3408,49 +3444,49 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3.318</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F147" t="s">
         <v>167</v>
@@ -3464,24 +3500,24 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.787</v>
+      </c>
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+      <c r="E150" t="s">
         <v>170</v>
       </c>
-      <c r="C150" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D150" t="s">
-        <v>92</v>
-      </c>
-      <c r="E150" t="s">
-        <v>93</v>
-      </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
@@ -3492,24 +3528,24 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="B153" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C153" t="n">
-        <v>3.385</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
@@ -3520,24 +3556,24 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="B156" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C156" t="n">
-        <v>3.941</v>
+        <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E156" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
@@ -3548,21 +3584,21 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="B159" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C159" t="n">
-        <v>3.906</v>
+        <v>3.75</v>
       </c>
       <c r="D159" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E159" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -3576,24 +3612,24 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C162" t="n">
-        <v>3.8335</v>
+        <v>3.385</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
@@ -3604,21 +3640,21 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="B165" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="D165" t="s">
         <v>184</v>
       </c>
-      <c r="C165" t="n">
-        <v>3.3885</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>185</v>
-      </c>
-      <c r="E165" t="s">
-        <v>186</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
@@ -3632,162 +3668,162 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C168" t="n">
-        <v>3.19</v>
+        <v>3.906</v>
       </c>
       <c r="D168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E168" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F168" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.8335</v>
+      </c>
+      <c r="D171" t="s">
+        <v>60</v>
+      </c>
+      <c r="E171" t="s">
+        <v>189</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.3885</v>
+      </c>
+      <c r="D174" t="s">
         <v>192</v>
       </c>
-      <c r="C171" t="n">
+      <c r="E174" t="s">
+        <v>193</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177" t="s">
+        <v>77</v>
+      </c>
+      <c r="F177" t="s">
+        <v>77</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>199</v>
+      </c>
+      <c r="C180" t="n">
         <v>3.4</v>
       </c>
-      <c r="D171" t="s">
-        <v>193</v>
-      </c>
-      <c r="E171" t="s">
-        <v>101</v>
-      </c>
-      <c r="F171" t="s">
-        <v>194</v>
-      </c>
-      <c r="G171" t="s">
-        <v>11</v>
-      </c>
-      <c r="H171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>195</v>
-      </c>
-      <c r="C172" t="n">
-        <v>3.609</v>
-      </c>
-      <c r="D172" t="s">
-        <v>196</v>
-      </c>
-      <c r="E172" t="s">
-        <v>197</v>
-      </c>
-      <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s">
-        <v>83</v>
-      </c>
-      <c r="H172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>199</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="D180" t="s">
         <v>200</v>
       </c>
-      <c r="E175" t="s">
-        <v>150</v>
-      </c>
-      <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
+      <c r="E180" t="s">
+        <v>109</v>
+      </c>
+      <c r="F180" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>202</v>
-      </c>
-      <c r="C178" t="n">
-        <v>2.564</v>
-      </c>
-      <c r="D178" t="s">
-        <v>203</v>
-      </c>
-      <c r="E178" t="s">
-        <v>204</v>
-      </c>
-      <c r="F178" t="s">
-        <v>203</v>
-      </c>
-      <c r="G178" t="s">
-        <v>205</v>
-      </c>
-      <c r="H178" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>206</v>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="B181" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>3.609</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H181" t="s">
         <v>11</v>
@@ -3795,21 +3831,21 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="B184" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>3.454</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F184" t="s">
         <v>11</v>
@@ -3818,12 +3854,12 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -3831,261 +3867,261 @@
         <v>209</v>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>2.564</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H187" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="B190" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="B193" t="s">
+        <v>216</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>219</v>
+      </c>
+      <c r="C199" t="n">
         <v>3.667</v>
       </c>
-      <c r="D190" t="s">
-        <v>92</v>
-      </c>
-      <c r="E190" t="s">
-        <v>182</v>
-      </c>
-      <c r="F190" t="s">
-        <v>213</v>
-      </c>
-      <c r="G190" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>209</v>
-      </c>
-      <c r="C191" t="n">
+      <c r="D199" t="s">
+        <v>100</v>
+      </c>
+      <c r="E199" t="s">
+        <v>189</v>
+      </c>
+      <c r="F199" t="s">
+        <v>220</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="B200" t="s">
+        <v>216</v>
+      </c>
+      <c r="C200" t="n">
         <v>3.952</v>
       </c>
-      <c r="D191" t="s">
-        <v>214</v>
-      </c>
-      <c r="E191" t="s">
-        <v>215</v>
-      </c>
-      <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>217</v>
-      </c>
-      <c r="C194" t="n">
+      <c r="D200" t="s">
+        <v>221</v>
+      </c>
+      <c r="E200" t="s">
+        <v>222</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="B203" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" t="n">
         <v>3.1385</v>
       </c>
-      <c r="D194" t="s">
-        <v>101</v>
-      </c>
-      <c r="E194" t="s">
-        <v>193</v>
-      </c>
-      <c r="F194" t="s">
-        <v>194</v>
-      </c>
-      <c r="G194" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>219</v>
-      </c>
-      <c r="C197" t="n">
+      <c r="D203" t="s">
+        <v>109</v>
+      </c>
+      <c r="E203" t="s">
+        <v>200</v>
+      </c>
+      <c r="F203" t="s">
+        <v>201</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="B206" t="s">
+        <v>226</v>
+      </c>
+      <c r="C206" t="n">
         <v>3.786</v>
       </c>
-      <c r="D197" t="s">
-        <v>68</v>
-      </c>
-      <c r="E197" t="s">
-        <v>220</v>
-      </c>
-      <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="B198" t="s">
-        <v>221</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.4475</v>
-      </c>
-      <c r="D198" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" t="s">
-        <v>222</v>
-      </c>
-      <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="B201" t="s">
-        <v>225</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D201" t="s">
-        <v>226</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="D206" t="s">
+        <v>76</v>
+      </c>
+      <c r="E206" t="s">
         <v>227</v>
       </c>
-      <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>229</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.558</v>
-      </c>
-      <c r="D204" t="s">
-        <v>230</v>
-      </c>
-      <c r="E204" t="s">
-        <v>231</v>
-      </c>
-      <c r="F204" t="s">
-        <v>232</v>
-      </c>
-      <c r="G204" t="s">
-        <v>232</v>
-      </c>
-      <c r="H204" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>234</v>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
+        <v>228</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.4475</v>
+      </c>
+      <c r="D207" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" t="s">
         <v>229</v>
       </c>
-      <c r="C207" t="n">
-        <v>3.5055</v>
-      </c>
-      <c r="D207" t="s">
-        <v>235</v>
-      </c>
-      <c r="E207" t="s">
-        <v>236</v>
-      </c>
       <c r="F207" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="B210" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C210" t="n">
-        <v>3.324</v>
+        <v>3.737</v>
       </c>
       <c r="D210" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E210" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F210" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H210" t="s">
         <v>11</v>
@@ -4093,55 +4129,55 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C213" t="n">
-        <v>3.174</v>
+        <v>3.558</v>
       </c>
       <c r="D213" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E213" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="G213" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H213" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="B216" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C216" t="n">
-        <v>3.2075</v>
+        <v>3.5055</v>
       </c>
       <c r="D216" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E216" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F216" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="H216" t="s">
         <v>11</v>
@@ -4149,55 +4185,55 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="B219" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C219" t="n">
-        <v>3.106</v>
+        <v>3.324</v>
       </c>
       <c r="D219" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E219" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F219" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="G219" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C222" t="n">
-        <v>2.5695</v>
+        <v>3.174</v>
       </c>
       <c r="D222" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E222" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F222" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="G222" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H222" t="s">
         <v>11</v>
@@ -4205,83 +4241,83 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C225" t="n">
-        <v>3.7315</v>
+        <v>3.2075</v>
       </c>
       <c r="D225" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E225" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="G225" t="s">
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C228" t="n">
-        <v>3.17</v>
+        <v>3.106</v>
       </c>
       <c r="D228" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E228" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F228" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="G228" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H228" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C231" t="n">
-        <v>2.941</v>
+        <v>2.5695</v>
       </c>
       <c r="D231" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E231" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F231" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="G231" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="H231" t="s">
         <v>11</v>
@@ -4289,147 +4325,147 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C234" t="n">
-        <v>2.6825</v>
+        <v>3.7315</v>
       </c>
       <c r="D234" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="E234" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F234" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G234" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="B237" t="s">
+        <v>236</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D237" t="s">
+        <v>272</v>
+      </c>
+      <c r="E237" t="s">
+        <v>273</v>
+      </c>
+      <c r="F237" t="s">
+        <v>274</v>
+      </c>
+      <c r="G237" t="s">
+        <v>275</v>
+      </c>
+      <c r="H237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
         <v>276</v>
       </c>
-      <c r="C237" t="n">
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
+        <v>236</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="D240" t="s">
+        <v>277</v>
+      </c>
+      <c r="E240" t="s">
+        <v>278</v>
+      </c>
+      <c r="F240" t="s">
+        <v>132</v>
+      </c>
+      <c r="G240" t="s">
+        <v>185</v>
+      </c>
+      <c r="H240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="B243" t="s">
+        <v>236</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.6825</v>
+      </c>
+      <c r="D243" t="s">
+        <v>77</v>
+      </c>
+      <c r="E243" t="s">
+        <v>280</v>
+      </c>
+      <c r="F243" t="s">
+        <v>281</v>
+      </c>
+      <c r="G243" t="s">
+        <v>197</v>
+      </c>
+      <c r="H243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="B246" t="s">
+        <v>283</v>
+      </c>
+      <c r="C246" t="n">
         <v>3.818</v>
       </c>
-      <c r="D237" t="s">
-        <v>180</v>
-      </c>
-      <c r="E237" t="s">
-        <v>11</v>
-      </c>
-      <c r="F237" t="s">
-        <v>76</v>
-      </c>
-      <c r="G237" t="s">
-        <v>11</v>
-      </c>
-      <c r="H237" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="B238" t="s">
-        <v>229</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4</v>
-      </c>
-      <c r="D238" t="s">
-        <v>10</v>
-      </c>
-      <c r="E238" t="s">
-        <v>11</v>
-      </c>
-      <c r="F238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" t="s">
-        <v>11</v>
-      </c>
-      <c r="H238" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="B241" t="s">
-        <v>229</v>
-      </c>
-      <c r="C241" t="n">
-        <v>4</v>
-      </c>
-      <c r="D241" t="s">
-        <v>10</v>
-      </c>
-      <c r="E241" t="s">
-        <v>11</v>
-      </c>
-      <c r="F241" t="s">
-        <v>11</v>
-      </c>
-      <c r="G241" t="s">
-        <v>11</v>
-      </c>
-      <c r="H241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>279</v>
-      </c>
-      <c r="C244" t="n">
-        <v>3.9645</v>
-      </c>
-      <c r="D244" t="s">
-        <v>280</v>
-      </c>
-      <c r="E244" t="s">
-        <v>136</v>
-      </c>
-      <c r="F244" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" t="s">
-        <v>11</v>
-      </c>
-      <c r="H244" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>281</v>
+      <c r="D246" t="s">
+        <v>187</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" t="s">
+        <v>84</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="B247" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C247" t="n">
         <v>4</v>
@@ -4450,105 +4486,105 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
-      <c r="B248" t="s">
-        <v>142</v>
-      </c>
-      <c r="C248" t="n">
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>236</v>
+      </c>
+      <c r="C250" t="n">
         <v>4</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D250" t="s">
         <v>10</v>
       </c>
-      <c r="E248" t="s">
-        <v>11</v>
-      </c>
-      <c r="F248" t="s">
-        <v>11</v>
-      </c>
-      <c r="G248" t="s">
-        <v>11</v>
-      </c>
-      <c r="H248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="B251" t="s">
-        <v>282</v>
-      </c>
-      <c r="C251" t="n">
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="B253" t="s">
+        <v>286</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.9645</v>
+      </c>
+      <c r="D253" t="s">
+        <v>287</v>
+      </c>
+      <c r="E253" t="s">
+        <v>144</v>
+      </c>
+      <c r="F253" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="B256" t="s">
+        <v>289</v>
+      </c>
+      <c r="C256" t="n">
         <v>4</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D256" t="s">
         <v>10</v>
       </c>
-      <c r="E251" t="s">
-        <v>11</v>
-      </c>
-      <c r="F251" t="s">
-        <v>11</v>
-      </c>
-      <c r="G251" t="s">
-        <v>11</v>
-      </c>
-      <c r="H251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="B254" t="s">
-        <v>285</v>
-      </c>
-      <c r="C254" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D254" t="s">
-        <v>74</v>
-      </c>
-      <c r="E254" t="s">
-        <v>286</v>
-      </c>
-      <c r="F254" t="s">
-        <v>11</v>
-      </c>
-      <c r="G254" t="s">
-        <v>11</v>
-      </c>
-      <c r="H254" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>287</v>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="B257" t="s">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="C257" t="n">
-        <v>3.429</v>
+        <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E257" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F257" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G257" t="s">
         <v>11</v>
@@ -4559,12 +4595,12 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C260" t="n">
         <v>4</v>
@@ -4587,21 +4623,21 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="C263" t="n">
-        <v>4</v>
+        <v>3.636</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E263" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="F263" t="s">
         <v>11</v>
@@ -4615,21 +4651,21 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C266" t="n">
-        <v>3.739</v>
+        <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="E266" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="F266" t="s">
         <v>11</v>
@@ -4638,170 +4674,129 @@
         <v>11</v>
       </c>
       <c r="H266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="B269" t="s">
+        <v>289</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="D269" t="s">
+        <v>19</v>
+      </c>
+      <c r="E269" t="s">
+        <v>281</v>
+      </c>
+      <c r="F269" t="s">
+        <v>77</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="B272" t="s">
+        <v>289</v>
+      </c>
+      <c r="C272" t="n">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>295</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="D275" t="s">
+        <v>207</v>
+      </c>
+      <c r="E275" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="B267" t="s">
-        <v>207</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D267" t="s">
-        <v>158</v>
-      </c>
-      <c r="E267" t="s">
-        <v>101</v>
-      </c>
-      <c r="F267" t="s">
-        <v>182</v>
-      </c>
-      <c r="G267" t="s">
-        <v>11</v>
-      </c>
-      <c r="H267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>294</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2.9947</v>
-      </c>
-      <c r="D270" t="s">
-        <v>295</v>
-      </c>
-      <c r="E270" t="s">
-        <v>296</v>
-      </c>
-      <c r="F270" t="s">
-        <v>297</v>
-      </c>
-      <c r="G270" t="s">
-        <v>298</v>
-      </c>
-      <c r="H270" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
+      <c r="F275" t="s">
+        <v>11</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+      <c r="H275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>112</v>
-      </c>
-      <c r="C273" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="D273" t="s">
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>236</v>
+      </c>
+      <c r="C278" t="n">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" t="s">
+        <v>11</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
         <v>300</v>
-      </c>
-      <c r="E273" t="s">
-        <v>301</v>
-      </c>
-      <c r="F273" t="s">
-        <v>147</v>
-      </c>
-      <c r="G273" t="s">
-        <v>11</v>
-      </c>
-      <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="B276" t="s">
-        <v>303</v>
-      </c>
-      <c r="C276" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D276" t="s">
-        <v>304</v>
-      </c>
-      <c r="E276" t="s">
-        <v>93</v>
-      </c>
-      <c r="F276" t="s">
-        <v>11</v>
-      </c>
-      <c r="G276" t="s">
-        <v>11</v>
-      </c>
-      <c r="H276" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="B277" t="s">
-        <v>306</v>
-      </c>
-      <c r="C277" t="n">
-        <v>3.724</v>
-      </c>
-      <c r="D277" t="s">
-        <v>300</v>
-      </c>
-      <c r="E277" t="s">
-        <v>301</v>
-      </c>
-      <c r="F277" t="s">
-        <v>11</v>
-      </c>
-      <c r="G277" t="s">
-        <v>11</v>
-      </c>
-      <c r="H277" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="B280" t="s">
-        <v>306</v>
-      </c>
-      <c r="C280" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D280" t="s">
-        <v>308</v>
-      </c>
-      <c r="E280" t="s">
-        <v>159</v>
-      </c>
-      <c r="F280" t="s">
-        <v>11</v>
-      </c>
-      <c r="G280" t="s">
-        <v>11</v>
-      </c>
-      <c r="H280" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="B281" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="C281" t="n">
         <v>4</v>
@@ -4824,21 +4819,21 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="C284" t="n">
-        <v>3.529</v>
+        <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="E284" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="F284" t="s">
         <v>11</v>
@@ -4850,90 +4845,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
-      <c r="B285" t="s">
-        <v>311</v>
-      </c>
-      <c r="C285" t="n">
-        <v>3.767</v>
-      </c>
-      <c r="D285" t="s">
-        <v>312</v>
-      </c>
-      <c r="E285" t="s">
-        <v>313</v>
-      </c>
-      <c r="F285" t="s">
-        <v>11</v>
-      </c>
-      <c r="G285" t="s">
-        <v>11</v>
-      </c>
-      <c r="H285" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="286" spans="1:8">
-      <c r="B286" t="s">
-        <v>314</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4</v>
-      </c>
-      <c r="D286" t="s">
-        <v>10</v>
-      </c>
-      <c r="E286" t="s">
-        <v>11</v>
-      </c>
-      <c r="F286" t="s">
-        <v>11</v>
-      </c>
-      <c r="G286" t="s">
-        <v>11</v>
-      </c>
-      <c r="H286" t="s">
-        <v>11</v>
+      <c r="A286" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C287" t="n">
-        <v>3.8647</v>
+        <v>3.739</v>
       </c>
       <c r="D287" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E287" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="F287" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="G287" t="s">
         <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="C288" t="n">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="D288" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="E288" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F288" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="G288" t="s">
         <v>11</v>
@@ -4942,136 +4896,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
-      <c r="B289" t="s">
-        <v>320</v>
-      </c>
-      <c r="C289" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D289" t="s">
-        <v>105</v>
-      </c>
-      <c r="E289" t="s">
-        <v>16</v>
-      </c>
-      <c r="F289" t="s">
-        <v>11</v>
-      </c>
-      <c r="G289" t="s">
-        <v>11</v>
-      </c>
-      <c r="H289" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="290" spans="1:8">
-      <c r="B290" t="s">
-        <v>321</v>
-      </c>
-      <c r="C290" t="n">
-        <v>3.6515</v>
-      </c>
-      <c r="D290" t="s">
-        <v>322</v>
-      </c>
-      <c r="E290" t="s">
-        <v>323</v>
-      </c>
-      <c r="F290" t="s">
-        <v>324</v>
-      </c>
-      <c r="G290" t="s">
-        <v>324</v>
-      </c>
-      <c r="H290" t="s">
-        <v>324</v>
+      <c r="A290" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="B291" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C291" t="n">
-        <v>3.786</v>
+        <v>2.9947</v>
       </c>
       <c r="D291" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="E291" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G291" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="H291" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
-      <c r="B292" t="s">
-        <v>326</v>
-      </c>
-      <c r="C292" t="n">
-        <v>3.966</v>
-      </c>
-      <c r="D292" t="s">
-        <v>327</v>
-      </c>
-      <c r="E292" t="s">
-        <v>147</v>
-      </c>
-      <c r="F292" t="s">
-        <v>11</v>
-      </c>
-      <c r="G292" t="s">
-        <v>11</v>
-      </c>
-      <c r="H292" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>328</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3.722</v>
-      </c>
-      <c r="D293" t="s">
-        <v>329</v>
-      </c>
-      <c r="E293" t="s">
-        <v>330</v>
-      </c>
-      <c r="F293" t="s">
-        <v>331</v>
-      </c>
-      <c r="G293" t="s">
-        <v>332</v>
-      </c>
-      <c r="H293" t="s">
-        <v>11</v>
+      <c r="A293" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="C294" t="n">
-        <v>3.783</v>
+        <v>3.793</v>
       </c>
       <c r="D294" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="E294" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="G294" t="s">
         <v>11</v>
@@ -5080,170 +4952,88 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
-      <c r="B295" t="s">
-        <v>335</v>
-      </c>
-      <c r="C295" t="n">
-        <v>3.817</v>
-      </c>
-      <c r="D295" t="s">
-        <v>336</v>
-      </c>
-      <c r="E295" t="s">
-        <v>337</v>
-      </c>
-      <c r="F295" t="s">
-        <v>338</v>
-      </c>
-      <c r="G295" t="s">
-        <v>11</v>
-      </c>
-      <c r="H295" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="296" spans="1:8">
-      <c r="B296" t="s">
-        <v>339</v>
-      </c>
-      <c r="C296" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="D296" t="s">
-        <v>168</v>
-      </c>
-      <c r="E296" t="s">
-        <v>227</v>
-      </c>
-      <c r="F296" t="s">
-        <v>128</v>
-      </c>
-      <c r="G296" t="s">
-        <v>11</v>
-      </c>
-      <c r="H296" t="s">
-        <v>11</v>
+      <c r="A296" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C297" t="n">
-        <v>3.942</v>
+        <v>3.55</v>
       </c>
       <c r="D297" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="E297" t="s">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="F297" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="G297" t="s">
         <v>11</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="B298" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C298" t="n">
-        <v>3.4195</v>
+        <v>3.724</v>
       </c>
       <c r="D298" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
       <c r="E298" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="F298" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G298" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H298" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>347</v>
-      </c>
-      <c r="C299" t="n">
-        <v>3.4085</v>
-      </c>
-      <c r="D299" t="s">
-        <v>271</v>
-      </c>
-      <c r="E299" t="s">
-        <v>348</v>
-      </c>
-      <c r="F299" t="s">
-        <v>11</v>
-      </c>
-      <c r="G299" t="s">
-        <v>11</v>
-      </c>
-      <c r="H299" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="B300" t="s">
-        <v>350</v>
-      </c>
-      <c r="C300" t="n">
-        <v>4</v>
-      </c>
-      <c r="D300" t="s">
-        <v>10</v>
-      </c>
-      <c r="E300" t="s">
-        <v>11</v>
-      </c>
-      <c r="F300" t="s">
-        <v>11</v>
-      </c>
-      <c r="G300" t="s">
-        <v>11</v>
-      </c>
-      <c r="H300" t="s">
-        <v>11</v>
+      <c r="A300" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="B301" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="C301" t="n">
-        <v>3.742</v>
+        <v>3.8</v>
       </c>
       <c r="D301" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E301" t="s">
-        <v>353</v>
+        <v>166</v>
       </c>
       <c r="F301" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="G301" t="s">
         <v>11</v>
       </c>
       <c r="H301" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
-        <v>354</v>
+        <v>121</v>
       </c>
       <c r="C302" t="n">
         <v>4</v>
@@ -5264,55 +5054,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
-      <c r="B303" t="s">
-        <v>355</v>
-      </c>
-      <c r="C303" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D303" t="s">
-        <v>186</v>
-      </c>
-      <c r="E303" t="s">
-        <v>356</v>
-      </c>
-      <c r="F303" t="s">
-        <v>305</v>
-      </c>
-      <c r="G303" t="s">
-        <v>11</v>
-      </c>
-      <c r="H303" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="304" spans="1:8">
-      <c r="B304" t="s">
-        <v>357</v>
-      </c>
-      <c r="C304" t="n">
-        <v>3.5153</v>
-      </c>
-      <c r="D304" t="s">
-        <v>358</v>
-      </c>
-      <c r="E304" t="s">
-        <v>359</v>
-      </c>
-      <c r="F304" t="s">
-        <v>353</v>
-      </c>
-      <c r="G304" t="s">
-        <v>11</v>
-      </c>
-      <c r="H304" t="s">
-        <v>332</v>
+      <c r="A304" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
+        <v>224</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="D305" t="s">
+        <v>322</v>
+      </c>
+      <c r="E305" t="s">
+        <v>248</v>
+      </c>
+      <c r="F305" t="s">
+        <v>11</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>360</v>
+      <c r="B306" t="s">
+        <v>323</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.767</v>
+      </c>
+      <c r="D306" t="s">
+        <v>324</v>
+      </c>
+      <c r="E306" t="s">
+        <v>325</v>
+      </c>
+      <c r="F306" t="s">
+        <v>11</v>
+      </c>
+      <c r="G306" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -5320,13 +5110,13 @@
         <v>326</v>
       </c>
       <c r="C307" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="E307" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="F307" t="s">
         <v>11</v>
@@ -5340,16 +5130,16 @@
     </row>
     <row r="308" spans="1:8">
       <c r="B308" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>3.609</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="E308" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F308" t="s">
         <v>11</v>
@@ -5358,24 +5148,24 @@
         <v>11</v>
       </c>
       <c r="H308" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="B309" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>3.8647</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
       <c r="E309" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="G309" t="s">
         <v>11</v>
@@ -5386,7 +5176,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="B310" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C310" t="n">
         <v>4</v>
@@ -5409,16 +5199,16 @@
     </row>
     <row r="311" spans="1:8">
       <c r="B311" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>3.889</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="E311" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F311" t="s">
         <v>11</v>
@@ -5432,187 +5222,392 @@
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="C312" t="n">
-        <v>3.8165</v>
+        <v>3.6515</v>
       </c>
       <c r="D312" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E312" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="F312" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="G312" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="H312" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="B313" t="s">
+        <v>338</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4</v>
+      </c>
+      <c r="D313" t="s">
+        <v>10</v>
+      </c>
+      <c r="E313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313" t="s">
+        <v>11</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:8">
-      <c r="A314" t="s">
-        <v>367</v>
+      <c r="B314" t="s">
+        <v>339</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D314" t="s">
+        <v>76</v>
+      </c>
+      <c r="E314" t="s">
+        <v>227</v>
+      </c>
+      <c r="F314" t="s">
+        <v>11</v>
+      </c>
+      <c r="G314" t="s">
+        <v>11</v>
+      </c>
+      <c r="H314" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="C315" t="n">
-        <v>2.919</v>
+        <v>3.966</v>
       </c>
       <c r="D315" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="E315" t="s">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="F315" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="G315" t="s">
         <v>11</v>
       </c>
       <c r="H315" t="s">
-        <v>371</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="B316" t="s">
+        <v>342</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D316" t="s">
+        <v>343</v>
+      </c>
+      <c r="E316" t="s">
+        <v>344</v>
+      </c>
+      <c r="F316" t="s">
+        <v>345</v>
+      </c>
+      <c r="G316" t="s">
+        <v>346</v>
+      </c>
+      <c r="H316" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" t="s">
-        <v>372</v>
+      <c r="B317" t="s">
+        <v>347</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.783</v>
+      </c>
+      <c r="D317" t="s">
+        <v>203</v>
+      </c>
+      <c r="E317" t="s">
+        <v>348</v>
+      </c>
+      <c r="F317" t="s">
+        <v>11</v>
+      </c>
+      <c r="G317" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="B318" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="C318" t="n">
-        <v>2.85</v>
+        <v>3.817</v>
       </c>
       <c r="D318" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="E318" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="F318" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="G318" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H318" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="B319" t="s">
+        <v>353</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="D319" t="s">
+        <v>175</v>
+      </c>
+      <c r="E319" t="s">
+        <v>234</v>
+      </c>
+      <c r="F319" t="s">
+        <v>136</v>
+      </c>
+      <c r="G319" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:8">
-      <c r="A320" t="s">
-        <v>374</v>
+      <c r="B320" t="s">
+        <v>354</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="D320" t="s">
+        <v>355</v>
+      </c>
+      <c r="E320" t="s">
+        <v>356</v>
+      </c>
+      <c r="F320" t="s">
+        <v>357</v>
+      </c>
+      <c r="G320" t="s">
+        <v>11</v>
+      </c>
+      <c r="H320" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="B321" t="s">
-        <v>229</v>
+        <v>358</v>
       </c>
       <c r="C321" t="n">
-        <v>3.167</v>
+        <v>3.4195</v>
       </c>
       <c r="D321" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E321" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="F321" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="G321" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H321" t="s">
-        <v>11</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="B322" t="s">
+        <v>361</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3.4085</v>
+      </c>
+      <c r="D322" t="s">
+        <v>278</v>
+      </c>
+      <c r="E322" t="s">
+        <v>362</v>
+      </c>
+      <c r="F322" t="s">
+        <v>11</v>
+      </c>
+      <c r="G322" t="s">
+        <v>11</v>
+      </c>
+      <c r="H322" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="A323" t="s">
-        <v>375</v>
+      <c r="B323" t="s">
+        <v>364</v>
+      </c>
+      <c r="C323" t="n">
+        <v>4</v>
+      </c>
+      <c r="D323" t="s">
+        <v>10</v>
+      </c>
+      <c r="E323" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323" t="s">
+        <v>11</v>
+      </c>
+      <c r="G323" t="s">
+        <v>11</v>
+      </c>
+      <c r="H323" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C324" t="n">
-        <v>2.6535</v>
+        <v>3.742</v>
       </c>
       <c r="D324" t="s">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="E324" t="s">
-        <v>173</v>
+        <v>367</v>
       </c>
       <c r="F324" t="s">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="G324" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H324" t="s">
-        <v>50</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="B325" t="s">
+        <v>368</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D325" t="s">
+        <v>193</v>
+      </c>
+      <c r="E325" t="s">
+        <v>369</v>
+      </c>
+      <c r="F325" t="s">
+        <v>317</v>
+      </c>
+      <c r="G325" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:8">
-      <c r="A326" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="B327" t="s">
-        <v>378</v>
-      </c>
-      <c r="C327" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D327" t="s">
-        <v>379</v>
-      </c>
-      <c r="E327" t="s">
-        <v>380</v>
-      </c>
-      <c r="F327" t="s">
-        <v>381</v>
-      </c>
-      <c r="G327" t="s">
-        <v>382</v>
-      </c>
-      <c r="H327" t="s">
-        <v>11</v>
+      <c r="B326" t="s">
+        <v>370</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.5153</v>
+      </c>
+      <c r="D326" t="s">
+        <v>371</v>
+      </c>
+      <c r="E326" t="s">
+        <v>372</v>
+      </c>
+      <c r="F326" t="s">
+        <v>367</v>
+      </c>
+      <c r="G326" t="s">
+        <v>11</v>
+      </c>
+      <c r="H326" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="329" spans="1:8">
-      <c r="A329" t="s">
-        <v>383</v>
+      <c r="B329" t="s">
+        <v>340</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D329" t="s">
+        <v>374</v>
+      </c>
+      <c r="E329" t="s">
+        <v>375</v>
+      </c>
+      <c r="F329" t="s">
+        <v>11</v>
+      </c>
+      <c r="G329" t="s">
+        <v>11</v>
+      </c>
+      <c r="H329" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="B330" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="C330" t="n">
-        <v>2.947</v>
+        <v>4</v>
       </c>
       <c r="D330" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="E330" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="F330" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G330" t="s">
         <v>11</v>
@@ -5621,26 +5616,67 @@
         <v>11</v>
       </c>
     </row>
+    <row r="331" spans="1:8">
+      <c r="B331" t="s">
+        <v>376</v>
+      </c>
+      <c r="C331" t="n">
+        <v>4</v>
+      </c>
+      <c r="D331" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331" t="s">
+        <v>11</v>
+      </c>
+      <c r="F331" t="s">
+        <v>11</v>
+      </c>
+      <c r="G331" t="s">
+        <v>11</v>
+      </c>
+      <c r="H331" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="332" spans="1:8">
-      <c r="A332" t="s">
-        <v>386</v>
+      <c r="B332" t="s">
+        <v>377</v>
+      </c>
+      <c r="C332" t="n">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" t="s">
+        <v>11</v>
+      </c>
+      <c r="F332" t="s">
+        <v>11</v>
+      </c>
+      <c r="G332" t="s">
+        <v>11</v>
+      </c>
+      <c r="H332" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="B333" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C333" t="n">
-        <v>3.0615</v>
+        <v>4</v>
       </c>
       <c r="D333" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="E333" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="F333" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="G333" t="s">
         <v>11</v>
@@ -5651,22 +5687,22 @@
     </row>
     <row r="334" spans="1:8">
       <c r="B334" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C334" t="n">
-        <v>2.85</v>
+        <v>3.8165</v>
       </c>
       <c r="D334" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E334" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="F334" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G334" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="H334" t="s">
         <v>11</v>
@@ -5674,80 +5710,80 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="B337" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C337" t="n">
-        <v>3.227</v>
+        <v>2.919</v>
       </c>
       <c r="D337" t="s">
-        <v>153</v>
+        <v>381</v>
       </c>
       <c r="E337" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="F337" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G337" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="H337" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="B340" t="s">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="C340" t="n">
-        <v>3.841</v>
+        <v>2.85</v>
       </c>
       <c r="D340" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E340" t="s">
-        <v>397</v>
+        <v>263</v>
       </c>
       <c r="F340" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G340" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H340" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="B343" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="C343" t="n">
-        <v>2.75</v>
+        <v>3.167</v>
       </c>
       <c r="D343" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E343" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="F343" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="G343" t="s">
         <v>11</v>
@@ -5758,134 +5794,134 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="B346" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C346" t="n">
-        <v>4</v>
+        <v>2.6535</v>
       </c>
       <c r="D346" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E346" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F346" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="G346" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H346" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
-      <c r="B347" t="s">
-        <v>355</v>
-      </c>
-      <c r="C347" t="n">
-        <v>4</v>
-      </c>
-      <c r="D347" t="s">
-        <v>10</v>
-      </c>
-      <c r="E347" t="s">
-        <v>11</v>
-      </c>
-      <c r="F347" t="s">
-        <v>11</v>
-      </c>
-      <c r="G347" t="s">
-        <v>11</v>
-      </c>
-      <c r="H347" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="349" spans="1:8">
-      <c r="A349" t="s">
+      <c r="B349" t="s">
+        <v>390</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D349" t="s">
+        <v>391</v>
+      </c>
+      <c r="E349" t="s">
+        <v>392</v>
+      </c>
+      <c r="F349" t="s">
+        <v>393</v>
+      </c>
+      <c r="G349" t="s">
+        <v>394</v>
+      </c>
+      <c r="H349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="B352" t="s">
+        <v>396</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="D352" t="s">
+        <v>397</v>
+      </c>
+      <c r="E352" t="s">
+        <v>233</v>
+      </c>
+      <c r="F352" t="s">
+        <v>136</v>
+      </c>
+      <c r="G352" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="B355" t="s">
+        <v>399</v>
+      </c>
+      <c r="C355" t="n">
+        <v>3.0615</v>
+      </c>
+      <c r="D355" t="s">
+        <v>210</v>
+      </c>
+      <c r="E355" t="s">
+        <v>400</v>
+      </c>
+      <c r="F355" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="B350" t="s">
-        <v>399</v>
-      </c>
-      <c r="C350" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="D350" t="s">
-        <v>75</v>
-      </c>
-      <c r="E350" t="s">
-        <v>74</v>
-      </c>
-      <c r="F350" t="s">
-        <v>76</v>
-      </c>
-      <c r="G350" t="s">
-        <v>11</v>
-      </c>
-      <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="A352" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>392</v>
-      </c>
-      <c r="C353" t="n">
-        <v>4</v>
-      </c>
-      <c r="D353" t="s">
-        <v>10</v>
-      </c>
-      <c r="E353" t="s">
-        <v>11</v>
-      </c>
-      <c r="F353" t="s">
-        <v>11</v>
-      </c>
-      <c r="G353" t="s">
-        <v>11</v>
-      </c>
-      <c r="H353" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>403</v>
+      <c r="G355" t="s">
+        <v>11</v>
+      </c>
+      <c r="H355" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="B356" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C356" t="n">
-        <v>3.769</v>
+        <v>2.85</v>
       </c>
       <c r="D356" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E356" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F356" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G356" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="H356" t="s">
         <v>11</v>
@@ -5893,128 +5929,128 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="B359" t="s">
+        <v>404</v>
+      </c>
+      <c r="C359" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="D359" t="s">
+        <v>160</v>
+      </c>
+      <c r="E359" t="s">
+        <v>51</v>
+      </c>
+      <c r="F359" t="s">
+        <v>405</v>
+      </c>
+      <c r="G359" t="s">
+        <v>162</v>
+      </c>
+      <c r="H359" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" t="s">
         <v>406</v>
       </c>
-      <c r="C359" t="n">
+    </row>
+    <row r="362" spans="1:8">
+      <c r="B362" t="s">
+        <v>407</v>
+      </c>
+      <c r="C362" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="D362" t="s">
+        <v>408</v>
+      </c>
+      <c r="E362" t="s">
+        <v>409</v>
+      </c>
+      <c r="F362" t="s">
+        <v>11</v>
+      </c>
+      <c r="G362" t="s">
+        <v>11</v>
+      </c>
+      <c r="H362" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="B365" t="s">
+        <v>411</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D365" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365" t="s">
+        <v>100</v>
+      </c>
+      <c r="F365" t="s">
+        <v>101</v>
+      </c>
+      <c r="G365" t="s">
+        <v>11</v>
+      </c>
+      <c r="H365" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="B368" t="s">
+        <v>380</v>
+      </c>
+      <c r="C368" t="n">
         <v>4</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D368" t="s">
         <v>10</v>
       </c>
-      <c r="E359" t="s">
-        <v>11</v>
-      </c>
-      <c r="F359" t="s">
-        <v>11</v>
-      </c>
-      <c r="G359" t="s">
-        <v>11</v>
-      </c>
-      <c r="H359" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="B360" t="s">
-        <v>407</v>
-      </c>
-      <c r="C360" t="n">
-        <v>3.353</v>
-      </c>
-      <c r="D360" t="s">
-        <v>408</v>
-      </c>
-      <c r="E360" t="s">
-        <v>271</v>
-      </c>
-      <c r="F360" t="s">
-        <v>11</v>
-      </c>
-      <c r="G360" t="s">
-        <v>11</v>
-      </c>
-      <c r="H360" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="B363" t="s">
-        <v>410</v>
-      </c>
-      <c r="C363" t="n">
-        <v>3.518</v>
-      </c>
-      <c r="D363" t="s">
-        <v>411</v>
-      </c>
-      <c r="E363" t="s">
-        <v>412</v>
-      </c>
-      <c r="F363" t="s">
-        <v>245</v>
-      </c>
-      <c r="G363" t="s">
-        <v>245</v>
-      </c>
-      <c r="H363" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
-      <c r="B366" t="s">
-        <v>414</v>
-      </c>
-      <c r="C366" t="n">
-        <v>3.743</v>
-      </c>
-      <c r="D366" t="s">
-        <v>415</v>
-      </c>
-      <c r="E366" t="s">
-        <v>69</v>
-      </c>
-      <c r="F366" t="s">
-        <v>11</v>
-      </c>
-      <c r="G366" t="s">
-        <v>11</v>
-      </c>
-      <c r="H366" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="A368" t="s">
-        <v>417</v>
+      <c r="E368" t="s">
+        <v>11</v>
+      </c>
+      <c r="F368" t="s">
+        <v>11</v>
+      </c>
+      <c r="G368" t="s">
+        <v>11</v>
+      </c>
+      <c r="H368" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:8">
       <c r="B369" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C369" t="n">
-        <v>3.969</v>
+        <v>4</v>
       </c>
       <c r="D369" t="s">
-        <v>419</v>
+        <v>10</v>
       </c>
       <c r="E369" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="F369" t="s">
         <v>11</v>
@@ -6028,24 +6064,24 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="B372" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C372" t="n">
-        <v>3.442</v>
+        <v>3.182</v>
       </c>
       <c r="D372" t="s">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="E372" t="s">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="F372" t="s">
-        <v>424</v>
+        <v>84</v>
       </c>
       <c r="G372" t="s">
         <v>11</v>
@@ -6056,18 +6092,18 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="B375" t="s">
-        <v>58</v>
+        <v>404</v>
       </c>
       <c r="C375" t="n">
-        <v>3.765</v>
+        <v>4</v>
       </c>
       <c r="D375" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="E375" t="s">
         <v>11</v>
@@ -6079,29 +6115,29 @@
         <v>11</v>
       </c>
       <c r="H375" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="B378" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C378" t="n">
-        <v>3.889</v>
+        <v>3.769</v>
       </c>
       <c r="D378" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="E378" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="F378" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="G378" t="s">
         <v>11</v>
@@ -6112,12 +6148,12 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="B381" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C381" t="n">
         <v>4</v>
@@ -6138,354 +6174,354 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
-      <c r="A383" t="s">
+    <row r="382" spans="1:8">
+      <c r="B382" t="s">
+        <v>419</v>
+      </c>
+      <c r="C382" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="D382" t="s">
+        <v>420</v>
+      </c>
+      <c r="E382" t="s">
+        <v>278</v>
+      </c>
+      <c r="F382" t="s">
+        <v>11</v>
+      </c>
+      <c r="G382" t="s">
+        <v>11</v>
+      </c>
+      <c r="H382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="B385" t="s">
+        <v>422</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.518</v>
+      </c>
+      <c r="D385" t="s">
+        <v>423</v>
+      </c>
+      <c r="E385" t="s">
+        <v>424</v>
+      </c>
+      <c r="F385" t="s">
+        <v>252</v>
+      </c>
+      <c r="G385" t="s">
+        <v>252</v>
+      </c>
+      <c r="H385" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="B388" t="s">
+        <v>426</v>
+      </c>
+      <c r="C388" t="n">
+        <v>3.743</v>
+      </c>
+      <c r="D388" t="s">
+        <v>427</v>
+      </c>
+      <c r="E388" t="s">
+        <v>77</v>
+      </c>
+      <c r="F388" t="s">
+        <v>11</v>
+      </c>
+      <c r="G388" t="s">
+        <v>11</v>
+      </c>
+      <c r="H388" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="B391" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="B384" t="s">
+      <c r="C391" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="D391" t="s">
         <v>431</v>
       </c>
-      <c r="C384" t="n">
+      <c r="E391" t="s">
+        <v>265</v>
+      </c>
+      <c r="F391" t="s">
+        <v>11</v>
+      </c>
+      <c r="G391" t="s">
+        <v>11</v>
+      </c>
+      <c r="H391" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="B394" t="s">
+        <v>433</v>
+      </c>
+      <c r="C394" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="D394" t="s">
+        <v>434</v>
+      </c>
+      <c r="E394" t="s">
+        <v>435</v>
+      </c>
+      <c r="F394" t="s">
+        <v>436</v>
+      </c>
+      <c r="G394" t="s">
+        <v>11</v>
+      </c>
+      <c r="H394" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="B397" t="s">
+        <v>66</v>
+      </c>
+      <c r="C397" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D397" t="s">
+        <v>184</v>
+      </c>
+      <c r="E397" t="s">
+        <v>11</v>
+      </c>
+      <c r="F397" t="s">
+        <v>11</v>
+      </c>
+      <c r="G397" t="s">
+        <v>11</v>
+      </c>
+      <c r="H397" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="B400" t="s">
+        <v>439</v>
+      </c>
+      <c r="C400" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D400" t="s">
+        <v>113</v>
+      </c>
+      <c r="E400" t="s">
+        <v>16</v>
+      </c>
+      <c r="F400" t="s">
+        <v>11</v>
+      </c>
+      <c r="G400" t="s">
+        <v>11</v>
+      </c>
+      <c r="H400" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="B403" t="s">
+        <v>441</v>
+      </c>
+      <c r="C403" t="n">
+        <v>4</v>
+      </c>
+      <c r="D403" t="s">
+        <v>10</v>
+      </c>
+      <c r="E403" t="s">
+        <v>11</v>
+      </c>
+      <c r="F403" t="s">
+        <v>11</v>
+      </c>
+      <c r="G403" t="s">
+        <v>11</v>
+      </c>
+      <c r="H403" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="B406" t="s">
+        <v>443</v>
+      </c>
+      <c r="C406" t="n">
         <v>3.917</v>
       </c>
-      <c r="D384" t="s">
-        <v>432</v>
-      </c>
-      <c r="E384" t="s">
-        <v>213</v>
-      </c>
-      <c r="F384" t="s">
-        <v>11</v>
-      </c>
-      <c r="G384" t="s">
-        <v>11</v>
-      </c>
-      <c r="H384" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
-      <c r="A386" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
-      <c r="B387" t="s">
-        <v>24</v>
-      </c>
-      <c r="C387" t="n">
+      <c r="D406" t="s">
+        <v>444</v>
+      </c>
+      <c r="E406" t="s">
+        <v>220</v>
+      </c>
+      <c r="F406" t="s">
+        <v>11</v>
+      </c>
+      <c r="G406" t="s">
+        <v>11</v>
+      </c>
+      <c r="H406" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="B409" t="s">
+        <v>26</v>
+      </c>
+      <c r="C409" t="n">
         <v>3.79</v>
       </c>
-      <c r="D387" t="s">
-        <v>52</v>
-      </c>
-      <c r="E387" t="s">
-        <v>434</v>
-      </c>
-      <c r="F387" t="s">
-        <v>245</v>
-      </c>
-      <c r="G387" t="s">
-        <v>11</v>
-      </c>
-      <c r="H387" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="A389" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="B390" t="s">
-        <v>436</v>
-      </c>
-      <c r="C390" t="n">
+      <c r="D409" t="s">
+        <v>60</v>
+      </c>
+      <c r="E409" t="s">
+        <v>446</v>
+      </c>
+      <c r="F409" t="s">
+        <v>252</v>
+      </c>
+      <c r="G409" t="s">
+        <v>11</v>
+      </c>
+      <c r="H409" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="A411" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="B412" t="s">
+        <v>448</v>
+      </c>
+      <c r="C412" t="n">
         <v>3.952</v>
       </c>
-      <c r="D390" t="s">
-        <v>214</v>
-      </c>
-      <c r="E390" t="s">
-        <v>215</v>
-      </c>
-      <c r="F390" t="s">
-        <v>11</v>
-      </c>
-      <c r="G390" t="s">
-        <v>11</v>
-      </c>
-      <c r="H390" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="A392" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="B393" t="s">
-        <v>438</v>
-      </c>
-      <c r="C393" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="D393" t="s">
-        <v>439</v>
-      </c>
-      <c r="E393" t="s">
-        <v>331</v>
-      </c>
-      <c r="F393" t="s">
-        <v>11</v>
-      </c>
-      <c r="G393" t="s">
-        <v>331</v>
-      </c>
-      <c r="H393" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="A395" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="B396" t="s">
-        <v>24</v>
-      </c>
-      <c r="C396" t="n">
-        <v>3.976</v>
-      </c>
-      <c r="D396" t="s">
-        <v>441</v>
-      </c>
-      <c r="E396" t="s">
-        <v>442</v>
-      </c>
-      <c r="F396" t="s">
-        <v>11</v>
-      </c>
-      <c r="G396" t="s">
-        <v>11</v>
-      </c>
-      <c r="H396" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
-      <c r="A398" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
-      <c r="B399" t="s">
-        <v>444</v>
-      </c>
-      <c r="C399" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D399" t="s">
-        <v>445</v>
-      </c>
-      <c r="E399" t="s">
-        <v>33</v>
-      </c>
-      <c r="F399" t="s">
-        <v>11</v>
-      </c>
-      <c r="G399" t="s">
-        <v>11</v>
-      </c>
-      <c r="H399" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
-      <c r="B402" t="s">
-        <v>447</v>
-      </c>
-      <c r="C402" t="n">
-        <v>3.3233</v>
-      </c>
-      <c r="D402" t="s">
-        <v>448</v>
-      </c>
-      <c r="E402" t="s">
+      <c r="D412" t="s">
+        <v>221</v>
+      </c>
+      <c r="E412" t="s">
+        <v>222</v>
+      </c>
+      <c r="F412" t="s">
+        <v>11</v>
+      </c>
+      <c r="G412" t="s">
+        <v>11</v>
+      </c>
+      <c r="H412" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" t="s">
         <v>449</v>
-      </c>
-      <c r="F402" t="s">
-        <v>450</v>
-      </c>
-      <c r="G402" t="s">
-        <v>451</v>
-      </c>
-      <c r="H402" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="A404" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="B405" t="s">
-        <v>453</v>
-      </c>
-      <c r="C405" t="n">
-        <v>2.5563</v>
-      </c>
-      <c r="D405" t="s">
-        <v>454</v>
-      </c>
-      <c r="E405" t="s">
-        <v>455</v>
-      </c>
-      <c r="F405" t="s">
-        <v>456</v>
-      </c>
-      <c r="G405" t="s">
-        <v>457</v>
-      </c>
-      <c r="H405" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
-      <c r="A407" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
-      <c r="B408" t="s">
-        <v>460</v>
-      </c>
-      <c r="C408" t="n">
-        <v>2.742</v>
-      </c>
-      <c r="D408" t="s">
-        <v>461</v>
-      </c>
-      <c r="E408" t="s">
-        <v>462</v>
-      </c>
-      <c r="F408" t="s">
-        <v>463</v>
-      </c>
-      <c r="G408" t="s">
-        <v>464</v>
-      </c>
-      <c r="H408" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
-      <c r="A410" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
-      <c r="B411" t="s">
-        <v>466</v>
-      </c>
-      <c r="C411" t="n">
-        <v>3.2667</v>
-      </c>
-      <c r="D411" t="s">
-        <v>467</v>
-      </c>
-      <c r="E411" t="s">
-        <v>468</v>
-      </c>
-      <c r="F411" t="s">
-        <v>469</v>
-      </c>
-      <c r="G411" t="s">
-        <v>164</v>
-      </c>
-      <c r="H411" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
-      <c r="A413" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
-      <c r="B414" t="s">
-        <v>472</v>
-      </c>
-      <c r="C414" t="n">
-        <v>3.782</v>
-      </c>
-      <c r="D414" t="s">
-        <v>300</v>
-      </c>
-      <c r="E414" t="s">
-        <v>473</v>
-      </c>
-      <c r="F414" t="s">
-        <v>474</v>
-      </c>
-      <c r="G414" t="s">
-        <v>11</v>
-      </c>
-      <c r="H414" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="B415" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C415" t="n">
-        <v>3.7137</v>
+        <v>3.871</v>
       </c>
       <c r="D415" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E415" t="s">
-        <v>477</v>
+        <v>345</v>
       </c>
       <c r="F415" t="s">
-        <v>478</v>
+        <v>11</v>
       </c>
       <c r="G415" t="s">
-        <v>479</v>
+        <v>345</v>
       </c>
       <c r="H415" t="s">
-        <v>479</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="B418" t="s">
-        <v>475</v>
+        <v>26</v>
       </c>
       <c r="C418" t="n">
-        <v>4</v>
+        <v>3.976</v>
       </c>
       <c r="D418" t="s">
-        <v>10</v>
+        <v>453</v>
       </c>
       <c r="E418" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="F418" t="s">
         <v>11</v>
@@ -6499,24 +6535,24 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="B421" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="C421" t="n">
-        <v>3.357</v>
+        <v>3.938</v>
       </c>
       <c r="D421" t="s">
-        <v>158</v>
+        <v>457</v>
       </c>
       <c r="E421" t="s">
-        <v>483</v>
+        <v>35</v>
       </c>
       <c r="F421" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G421" t="s">
         <v>11</v>
@@ -6527,541 +6563,760 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="B424" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C424" t="n">
-        <v>3.6</v>
+        <v>3.3233</v>
       </c>
       <c r="D424" t="s">
-        <v>186</v>
+        <v>460</v>
       </c>
       <c r="E424" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="F424" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="G424" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="H424" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="427" spans="1:8">
       <c r="B427" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C427" t="n">
+        <v>2.5563</v>
+      </c>
+      <c r="D427" t="s">
+        <v>466</v>
+      </c>
+      <c r="E427" t="s">
+        <v>467</v>
+      </c>
+      <c r="F427" t="s">
+        <v>468</v>
+      </c>
+      <c r="G427" t="s">
+        <v>469</v>
+      </c>
+      <c r="H427" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="B430" t="s">
+        <v>472</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="D430" t="s">
+        <v>473</v>
+      </c>
+      <c r="E430" t="s">
+        <v>474</v>
+      </c>
+      <c r="F430" t="s">
+        <v>475</v>
+      </c>
+      <c r="G430" t="s">
+        <v>476</v>
+      </c>
+      <c r="H430" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="B433" t="s">
+        <v>478</v>
+      </c>
+      <c r="C433" t="n">
+        <v>3.2667</v>
+      </c>
+      <c r="D433" t="s">
+        <v>479</v>
+      </c>
+      <c r="E433" t="s">
+        <v>480</v>
+      </c>
+      <c r="F433" t="s">
+        <v>481</v>
+      </c>
+      <c r="G433" t="s">
+        <v>171</v>
+      </c>
+      <c r="H433" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="B436" t="s">
+        <v>484</v>
+      </c>
+      <c r="C436" t="n">
+        <v>3.782</v>
+      </c>
+      <c r="D436" t="s">
+        <v>312</v>
+      </c>
+      <c r="E436" t="s">
+        <v>485</v>
+      </c>
+      <c r="F436" t="s">
+        <v>486</v>
+      </c>
+      <c r="G436" t="s">
+        <v>11</v>
+      </c>
+      <c r="H436" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="B437" t="s">
+        <v>487</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3.7137</v>
+      </c>
+      <c r="D437" t="s">
+        <v>488</v>
+      </c>
+      <c r="E437" t="s">
+        <v>489</v>
+      </c>
+      <c r="F437" t="s">
+        <v>490</v>
+      </c>
+      <c r="G437" t="s">
+        <v>491</v>
+      </c>
+      <c r="H437" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="B440" t="s">
+        <v>487</v>
+      </c>
+      <c r="C440" t="n">
+        <v>4</v>
+      </c>
+      <c r="D440" t="s">
+        <v>10</v>
+      </c>
+      <c r="E440" t="s">
+        <v>11</v>
+      </c>
+      <c r="F440" t="s">
+        <v>11</v>
+      </c>
+      <c r="G440" t="s">
+        <v>11</v>
+      </c>
+      <c r="H440" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="B443" t="s">
+        <v>494</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="D443" t="s">
+        <v>165</v>
+      </c>
+      <c r="E443" t="s">
+        <v>495</v>
+      </c>
+      <c r="F443" t="s">
+        <v>77</v>
+      </c>
+      <c r="G443" t="s">
+        <v>11</v>
+      </c>
+      <c r="H443" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="B446" t="s">
+        <v>494</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>193</v>
+      </c>
+      <c r="E446" t="s">
+        <v>192</v>
+      </c>
+      <c r="F446" t="s">
+        <v>11</v>
+      </c>
+      <c r="G446" t="s">
+        <v>11</v>
+      </c>
+      <c r="H446" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="B449" t="s">
+        <v>459</v>
+      </c>
+      <c r="C449" t="n">
         <v>3.2787</v>
       </c>
-      <c r="D427" t="s">
-        <v>247</v>
-      </c>
-      <c r="E427" t="s">
-        <v>286</v>
-      </c>
-      <c r="F427" t="s">
-        <v>109</v>
-      </c>
-      <c r="G427" t="s">
-        <v>11</v>
-      </c>
-      <c r="H427" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="B428" t="s">
-        <v>486</v>
-      </c>
-      <c r="C428" t="n">
-        <v>3.1045</v>
-      </c>
-      <c r="D428" t="s">
-        <v>241</v>
-      </c>
-      <c r="E428" t="s">
-        <v>487</v>
-      </c>
-      <c r="F428" t="s">
-        <v>270</v>
-      </c>
-      <c r="G428" t="s">
-        <v>11</v>
-      </c>
-      <c r="H428" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="B429" t="s">
-        <v>475</v>
-      </c>
-      <c r="C429" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="D429" t="s">
-        <v>488</v>
-      </c>
-      <c r="E429" t="s">
-        <v>489</v>
-      </c>
-      <c r="F429" t="s">
-        <v>11</v>
-      </c>
-      <c r="G429" t="s">
-        <v>11</v>
-      </c>
-      <c r="H429" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="A431" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="B432" t="s">
-        <v>447</v>
-      </c>
-      <c r="C432" t="n">
-        <v>4</v>
-      </c>
-      <c r="D432" t="s">
-        <v>10</v>
-      </c>
-      <c r="E432" t="s">
-        <v>11</v>
-      </c>
-      <c r="F432" t="s">
-        <v>11</v>
-      </c>
-      <c r="G432" t="s">
-        <v>11</v>
-      </c>
-      <c r="H432" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
-      <c r="A434" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
-      <c r="B435" t="s">
-        <v>475</v>
-      </c>
-      <c r="C435" t="n">
-        <v>4</v>
-      </c>
-      <c r="D435" t="s">
-        <v>10</v>
-      </c>
-      <c r="E435" t="s">
-        <v>11</v>
-      </c>
-      <c r="F435" t="s">
-        <v>11</v>
-      </c>
-      <c r="G435" t="s">
-        <v>11</v>
-      </c>
-      <c r="H435" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="A437" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8">
-      <c r="B438" t="s">
-        <v>453</v>
-      </c>
-      <c r="C438" t="n">
-        <v>3</v>
-      </c>
-      <c r="D438" t="s">
-        <v>182</v>
-      </c>
-      <c r="E438" t="s">
-        <v>15</v>
-      </c>
-      <c r="F438" t="s">
-        <v>182</v>
-      </c>
-      <c r="G438" t="s">
-        <v>11</v>
-      </c>
-      <c r="H438" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8">
-      <c r="A440" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8">
-      <c r="B441" t="s">
-        <v>494</v>
-      </c>
-      <c r="C441" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D441" t="s">
-        <v>19</v>
-      </c>
-      <c r="E441" t="s">
-        <v>274</v>
-      </c>
-      <c r="F441" t="s">
-        <v>11</v>
-      </c>
-      <c r="G441" t="s">
-        <v>11</v>
-      </c>
-      <c r="H441" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
-      <c r="A443" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
-      <c r="B444" t="s">
-        <v>486</v>
-      </c>
-      <c r="C444" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D444" t="s">
-        <v>256</v>
-      </c>
-      <c r="E444" t="s">
-        <v>158</v>
-      </c>
-      <c r="F444" t="s">
-        <v>496</v>
-      </c>
-      <c r="G444" t="s">
-        <v>11</v>
-      </c>
-      <c r="H444" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
-      <c r="A446" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
-      <c r="B447" t="s">
-        <v>447</v>
-      </c>
-      <c r="C447" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D447" t="s">
-        <v>361</v>
-      </c>
-      <c r="E447" t="s">
-        <v>362</v>
-      </c>
-      <c r="F447" t="s">
-        <v>11</v>
-      </c>
-      <c r="G447" t="s">
-        <v>11</v>
-      </c>
-      <c r="H447" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8">
-      <c r="A449" t="s">
-        <v>498</v>
+      <c r="D449" t="s">
+        <v>254</v>
+      </c>
+      <c r="E449" t="s">
+        <v>293</v>
+      </c>
+      <c r="F449" t="s">
+        <v>117</v>
+      </c>
+      <c r="G449" t="s">
+        <v>11</v>
+      </c>
+      <c r="H449" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="B450" t="s">
-        <v>209</v>
+        <v>498</v>
       </c>
       <c r="C450" t="n">
+        <v>3.1045</v>
+      </c>
+      <c r="D450" t="s">
+        <v>248</v>
+      </c>
+      <c r="E450" t="s">
+        <v>499</v>
+      </c>
+      <c r="F450" t="s">
+        <v>277</v>
+      </c>
+      <c r="G450" t="s">
+        <v>11</v>
+      </c>
+      <c r="H450" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="B451" t="s">
+        <v>487</v>
+      </c>
+      <c r="C451" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D451" t="s">
+        <v>500</v>
+      </c>
+      <c r="E451" t="s">
+        <v>501</v>
+      </c>
+      <c r="F451" t="s">
+        <v>11</v>
+      </c>
+      <c r="G451" t="s">
+        <v>11</v>
+      </c>
+      <c r="H451" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="B454" t="s">
+        <v>459</v>
+      </c>
+      <c r="C454" t="n">
         <v>4</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D454" t="s">
         <v>10</v>
       </c>
-      <c r="E450" t="s">
-        <v>11</v>
-      </c>
-      <c r="F450" t="s">
-        <v>11</v>
-      </c>
-      <c r="G450" t="s">
-        <v>11</v>
-      </c>
-      <c r="H450" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8">
-      <c r="A452" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="B453" t="s">
-        <v>500</v>
-      </c>
-      <c r="C453" t="n">
+      <c r="E454" t="s">
+        <v>11</v>
+      </c>
+      <c r="F454" t="s">
+        <v>11</v>
+      </c>
+      <c r="G454" t="s">
+        <v>11</v>
+      </c>
+      <c r="H454" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="B457" t="s">
+        <v>487</v>
+      </c>
+      <c r="C457" t="n">
         <v>4</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D457" t="s">
         <v>10</v>
       </c>
-      <c r="E453" t="s">
-        <v>11</v>
-      </c>
-      <c r="F453" t="s">
-        <v>11</v>
-      </c>
-      <c r="G453" t="s">
-        <v>11</v>
-      </c>
-      <c r="H453" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
-      <c r="A455" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="B456" t="s">
-        <v>502</v>
-      </c>
-      <c r="C456" t="n">
-        <v>4</v>
-      </c>
-      <c r="D456" t="s">
-        <v>10</v>
-      </c>
-      <c r="E456" t="s">
-        <v>11</v>
-      </c>
-      <c r="F456" t="s">
-        <v>11</v>
-      </c>
-      <c r="G456" t="s">
-        <v>11</v>
-      </c>
-      <c r="H456" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
-      <c r="A458" t="s">
-        <v>503</v>
+      <c r="E457" t="s">
+        <v>11</v>
+      </c>
+      <c r="F457" t="s">
+        <v>11</v>
+      </c>
+      <c r="G457" t="s">
+        <v>11</v>
+      </c>
+      <c r="H457" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="459" spans="1:8">
-      <c r="B459" t="s">
-        <v>209</v>
-      </c>
-      <c r="C459" t="n">
-        <v>4</v>
-      </c>
-      <c r="D459" t="s">
-        <v>10</v>
-      </c>
-      <c r="E459" t="s">
-        <v>11</v>
-      </c>
-      <c r="F459" t="s">
-        <v>11</v>
-      </c>
-      <c r="G459" t="s">
-        <v>11</v>
-      </c>
-      <c r="H459" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
-      <c r="A461" t="s">
+      <c r="A459" t="s">
         <v>504</v>
       </c>
     </row>
+    <row r="460" spans="1:8">
+      <c r="B460" t="s">
+        <v>465</v>
+      </c>
+      <c r="C460" t="n">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>189</v>
+      </c>
+      <c r="E460" t="s">
+        <v>15</v>
+      </c>
+      <c r="F460" t="s">
+        <v>189</v>
+      </c>
+      <c r="G460" t="s">
+        <v>11</v>
+      </c>
+      <c r="H460" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="462" spans="1:8">
-      <c r="B462" t="s">
-        <v>61</v>
-      </c>
-      <c r="C462" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D462" t="s">
+      <c r="A462" t="s">
         <v>505</v>
       </c>
-      <c r="E462" t="s">
+    </row>
+    <row r="463" spans="1:8">
+      <c r="B463" t="s">
         <v>506</v>
       </c>
-      <c r="F462" t="s">
+      <c r="C463" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D463" t="s">
+        <v>19</v>
+      </c>
+      <c r="E463" t="s">
+        <v>281</v>
+      </c>
+      <c r="F463" t="s">
+        <v>11</v>
+      </c>
+      <c r="G463" t="s">
+        <v>11</v>
+      </c>
+      <c r="H463" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" t="s">
         <v>507</v>
       </c>
-      <c r="G462" t="s">
+    </row>
+    <row r="466" spans="1:8">
+      <c r="B466" t="s">
+        <v>498</v>
+      </c>
+      <c r="C466" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D466" t="s">
+        <v>263</v>
+      </c>
+      <c r="E466" t="s">
+        <v>165</v>
+      </c>
+      <c r="F466" t="s">
         <v>508</v>
       </c>
-      <c r="H462" t="s">
+      <c r="G466" t="s">
+        <v>11</v>
+      </c>
+      <c r="H466" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
-      <c r="A464" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="B465" t="s">
-        <v>65</v>
-      </c>
-      <c r="C465" t="n">
-        <v>4</v>
-      </c>
-      <c r="D465" t="s">
-        <v>10</v>
-      </c>
-      <c r="E465" t="s">
-        <v>11</v>
-      </c>
-      <c r="F465" t="s">
-        <v>11</v>
-      </c>
-      <c r="G465" t="s">
-        <v>11</v>
-      </c>
-      <c r="H465" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="A467" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="B468" t="s">
-        <v>65</v>
-      </c>
-      <c r="C468" t="n">
-        <v>4</v>
-      </c>
-      <c r="D468" t="s">
-        <v>10</v>
-      </c>
-      <c r="E468" t="s">
-        <v>11</v>
-      </c>
-      <c r="F468" t="s">
-        <v>11</v>
-      </c>
-      <c r="G468" t="s">
-        <v>11</v>
-      </c>
-      <c r="H468" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:8">
       <c r="B469" t="s">
-        <v>100</v>
+        <v>459</v>
       </c>
       <c r="C469" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D469" t="s">
+        <v>374</v>
+      </c>
+      <c r="E469" t="s">
+        <v>375</v>
+      </c>
+      <c r="F469" t="s">
+        <v>11</v>
+      </c>
+      <c r="G469" t="s">
+        <v>11</v>
+      </c>
+      <c r="H469" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="B472" t="s">
+        <v>216</v>
+      </c>
+      <c r="C472" t="n">
         <v>4</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D472" t="s">
         <v>10</v>
       </c>
-      <c r="E469" t="s">
-        <v>11</v>
-      </c>
-      <c r="F469" t="s">
-        <v>11</v>
-      </c>
-      <c r="G469" t="s">
-        <v>11</v>
-      </c>
-      <c r="H469" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
-      <c r="B470" t="s">
-        <v>429</v>
-      </c>
-      <c r="C470" t="n">
+      <c r="E472" t="s">
+        <v>11</v>
+      </c>
+      <c r="F472" t="s">
+        <v>11</v>
+      </c>
+      <c r="G472" t="s">
+        <v>11</v>
+      </c>
+      <c r="H472" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="B475" t="s">
+        <v>512</v>
+      </c>
+      <c r="C475" t="n">
         <v>4</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D475" t="s">
         <v>10</v>
       </c>
-      <c r="E470" t="s">
-        <v>11</v>
-      </c>
-      <c r="F470" t="s">
-        <v>11</v>
-      </c>
-      <c r="G470" t="s">
-        <v>11</v>
-      </c>
-      <c r="H470" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
-      <c r="A472" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
-      <c r="B473" t="s">
-        <v>104</v>
-      </c>
-      <c r="C473" t="n">
+      <c r="E475" t="s">
+        <v>11</v>
+      </c>
+      <c r="F475" t="s">
+        <v>11</v>
+      </c>
+      <c r="G475" t="s">
+        <v>11</v>
+      </c>
+      <c r="H475" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="B478" t="s">
+        <v>514</v>
+      </c>
+      <c r="C478" t="n">
+        <v>4</v>
+      </c>
+      <c r="D478" t="s">
+        <v>10</v>
+      </c>
+      <c r="E478" t="s">
+        <v>11</v>
+      </c>
+      <c r="F478" t="s">
+        <v>11</v>
+      </c>
+      <c r="G478" t="s">
+        <v>11</v>
+      </c>
+      <c r="H478" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="B481" t="s">
+        <v>216</v>
+      </c>
+      <c r="C481" t="n">
+        <v>4</v>
+      </c>
+      <c r="D481" t="s">
+        <v>10</v>
+      </c>
+      <c r="E481" t="s">
+        <v>11</v>
+      </c>
+      <c r="F481" t="s">
+        <v>11</v>
+      </c>
+      <c r="G481" t="s">
+        <v>11</v>
+      </c>
+      <c r="H481" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="B484" t="s">
+        <v>69</v>
+      </c>
+      <c r="C484" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D484" t="s">
+        <v>517</v>
+      </c>
+      <c r="E484" t="s">
+        <v>518</v>
+      </c>
+      <c r="F484" t="s">
+        <v>519</v>
+      </c>
+      <c r="G484" t="s">
+        <v>520</v>
+      </c>
+      <c r="H484" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="B487" t="s">
+        <v>73</v>
+      </c>
+      <c r="C487" t="n">
+        <v>4</v>
+      </c>
+      <c r="D487" t="s">
+        <v>10</v>
+      </c>
+      <c r="E487" t="s">
+        <v>11</v>
+      </c>
+      <c r="F487" t="s">
+        <v>11</v>
+      </c>
+      <c r="G487" t="s">
+        <v>11</v>
+      </c>
+      <c r="H487" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="B490" t="s">
+        <v>73</v>
+      </c>
+      <c r="C490" t="n">
+        <v>4</v>
+      </c>
+      <c r="D490" t="s">
+        <v>10</v>
+      </c>
+      <c r="E490" t="s">
+        <v>11</v>
+      </c>
+      <c r="F490" t="s">
+        <v>11</v>
+      </c>
+      <c r="G490" t="s">
+        <v>11</v>
+      </c>
+      <c r="H490" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="B491" t="s">
+        <v>108</v>
+      </c>
+      <c r="C491" t="n">
+        <v>4</v>
+      </c>
+      <c r="D491" t="s">
+        <v>10</v>
+      </c>
+      <c r="E491" t="s">
+        <v>11</v>
+      </c>
+      <c r="F491" t="s">
+        <v>11</v>
+      </c>
+      <c r="G491" t="s">
+        <v>11</v>
+      </c>
+      <c r="H491" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="B492" t="s">
+        <v>441</v>
+      </c>
+      <c r="C492" t="n">
+        <v>4</v>
+      </c>
+      <c r="D492" t="s">
+        <v>10</v>
+      </c>
+      <c r="E492" t="s">
+        <v>11</v>
+      </c>
+      <c r="F492" t="s">
+        <v>11</v>
+      </c>
+      <c r="G492" t="s">
+        <v>11</v>
+      </c>
+      <c r="H492" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="B495" t="s">
+        <v>112</v>
+      </c>
+      <c r="C495" t="n">
         <v>3.92</v>
       </c>
-      <c r="D473" t="s">
-        <v>513</v>
-      </c>
-      <c r="E473" t="s">
-        <v>11</v>
-      </c>
-      <c r="F473" t="s">
-        <v>382</v>
-      </c>
-      <c r="G473" t="s">
-        <v>11</v>
-      </c>
-      <c r="H473" t="s">
+      <c r="D495" t="s">
+        <v>525</v>
+      </c>
+      <c r="E495" t="s">
+        <v>11</v>
+      </c>
+      <c r="F495" t="s">
+        <v>394</v>
+      </c>
+      <c r="G495" t="s">
+        <v>11</v>
+      </c>
+      <c r="H495" t="s">
         <v>11</v>
       </c>
     </row>
